--- a/桌面/产品管理/教育成长/教育成长.xlsx
+++ b/桌面/产品管理/教育成长/教育成长.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\产品管理\教育成长\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BD5CD9-CABB-4087-BFFE-05A3324F0F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B871F8-DE5D-4EF5-B082-CBFABC21D775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="交易数据表" sheetId="3" r:id="rId1"/>
@@ -28,8 +28,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId9"/>
-    <pivotCache cacheId="15" r:id="rId10"/>
+    <pivotCache cacheId="16" r:id="rId9"/>
+    <pivotCache cacheId="17" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -336,6 +336,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -350,6 +351,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -364,6 +366,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -384,6 +387,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -419,6 +423,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -514,6 +519,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -531,6 +537,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -821,6 +828,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -830,6 +838,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
@@ -954,29 +963,34 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -984,6 +998,7 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -994,26 +1009,31 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1021,6 +1041,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1028,30 +1049,35 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1059,6 +1085,7 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1066,6 +1093,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1648,693 +1676,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="306">
-    <dxf>
-      <numFmt numFmtId="183" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="183" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="102">
     <dxf>
       <numFmt numFmtId="182" formatCode="0.000"/>
     </dxf>
@@ -5523,7 +4865,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="数据透视表3" cacheId="15" dataOnRows="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="数据透视表3" cacheId="17" dataOnRows="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A21:C34" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
@@ -5751,13 +5093,13 @@
     <dataField name="求和项:金额（亿元）" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="95">
-    <format dxfId="298">
+    <format dxfId="94">
       <pivotArea outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="297">
+    <format dxfId="93">
       <pivotArea outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="296">
+    <format dxfId="92">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5769,7 +5111,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="295">
+    <format dxfId="91">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5781,7 +5123,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="294">
+    <format dxfId="90">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5793,7 +5135,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="293">
+    <format dxfId="89">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5805,7 +5147,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="292">
+    <format dxfId="88">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5817,7 +5159,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="291">
+    <format dxfId="87">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5829,7 +5171,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="290">
+    <format dxfId="86">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5841,7 +5183,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="289">
+    <format dxfId="85">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5853,7 +5195,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="288">
+    <format dxfId="84">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5865,7 +5207,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="287">
+    <format dxfId="83">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5877,7 +5219,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="286">
+    <format dxfId="82">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5889,7 +5231,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="285">
+    <format dxfId="81">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5901,7 +5243,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="284">
+    <format dxfId="80">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5913,7 +5255,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="283">
+    <format dxfId="79">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5925,7 +5267,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="282">
+    <format dxfId="78">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5937,7 +5279,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="281">
+    <format dxfId="77">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5949,7 +5291,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="280">
+    <format dxfId="76">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5961,7 +5303,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="279">
+    <format dxfId="75">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5973,7 +5315,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="278">
+    <format dxfId="74">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5985,7 +5327,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="277">
+    <format dxfId="73">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5997,7 +5339,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="276">
+    <format dxfId="72">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6009,7 +5351,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="275">
+    <format dxfId="71">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6021,7 +5363,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="274">
+    <format dxfId="70">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6033,7 +5375,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="273">
+    <format dxfId="69">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6045,7 +5387,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="272">
+    <format dxfId="68">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6057,7 +5399,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="271">
+    <format dxfId="67">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6069,7 +5411,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="270">
+    <format dxfId="66">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6081,7 +5423,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="269">
+    <format dxfId="65">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6093,7 +5435,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="268">
+    <format dxfId="64">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6105,7 +5447,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="267">
+    <format dxfId="63">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6117,7 +5459,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="266">
+    <format dxfId="62">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6129,7 +5471,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="265">
+    <format dxfId="61">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6141,7 +5483,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="264">
+    <format dxfId="60">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6153,7 +5495,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="263">
+    <format dxfId="59">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6165,7 +5507,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="262">
+    <format dxfId="58">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6177,7 +5519,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="261">
+    <format dxfId="57">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6189,7 +5531,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="260">
+    <format dxfId="56">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6201,7 +5543,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="259">
+    <format dxfId="55">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6213,7 +5555,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="258">
+    <format dxfId="54">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6225,7 +5567,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="257">
+    <format dxfId="53">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6237,7 +5579,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="256">
+    <format dxfId="52">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6249,7 +5591,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="255">
+    <format dxfId="51">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6261,7 +5603,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="254">
+    <format dxfId="50">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6273,7 +5615,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="253">
+    <format dxfId="49">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6285,7 +5627,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="252">
+    <format dxfId="48">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6297,7 +5639,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="251">
+    <format dxfId="47">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6309,7 +5651,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="250">
+    <format dxfId="46">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6321,7 +5663,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="249">
+    <format dxfId="45">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6333,7 +5675,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="248">
+    <format dxfId="44">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6345,7 +5687,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="247">
+    <format dxfId="43">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6357,7 +5699,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="246">
+    <format dxfId="42">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6369,7 +5711,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="245">
+    <format dxfId="41">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6381,7 +5723,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="244">
+    <format dxfId="40">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6393,7 +5735,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="243">
+    <format dxfId="39">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6405,7 +5747,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="242">
+    <format dxfId="38">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6417,7 +5759,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="241">
+    <format dxfId="37">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6429,7 +5771,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="240">
+    <format dxfId="36">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6441,7 +5783,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="239">
+    <format dxfId="35">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6453,7 +5795,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="238">
+    <format dxfId="34">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6465,7 +5807,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="237">
+    <format dxfId="33">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6477,7 +5819,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="236">
+    <format dxfId="32">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6489,7 +5831,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="235">
+    <format dxfId="31">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6501,7 +5843,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="234">
+    <format dxfId="30">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6513,7 +5855,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="233">
+    <format dxfId="29">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6525,7 +5867,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="232">
+    <format dxfId="28">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6537,7 +5879,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="231">
+    <format dxfId="27">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6549,7 +5891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="230">
+    <format dxfId="26">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6561,7 +5903,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="229">
+    <format dxfId="25">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6573,7 +5915,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="228">
+    <format dxfId="24">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6585,7 +5927,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="227">
+    <format dxfId="23">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6597,7 +5939,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="226">
+    <format dxfId="22">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6609,7 +5951,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="225">
+    <format dxfId="21">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6621,7 +5963,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="224">
+    <format dxfId="20">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6633,7 +5975,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="223">
+    <format dxfId="19">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6645,7 +5987,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="222">
+    <format dxfId="18">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6657,7 +5999,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="221">
+    <format dxfId="17">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6669,7 +6011,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="220">
+    <format dxfId="16">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6681,7 +6023,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="219">
+    <format dxfId="15">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6693,7 +6035,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="218">
+    <format dxfId="14">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6705,7 +6047,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="217">
+    <format dxfId="13">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6717,7 +6059,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="216">
+    <format dxfId="12">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6729,7 +6071,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="215">
+    <format dxfId="11">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6741,7 +6083,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="214">
+    <format dxfId="10">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6753,7 +6095,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="213">
+    <format dxfId="9">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6765,7 +6107,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="212">
+    <format dxfId="8">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6777,7 +6119,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="211">
+    <format dxfId="7">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6789,7 +6131,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="210">
+    <format dxfId="6">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6801,7 +6143,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="209">
+    <format dxfId="5">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6813,7 +6155,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="208">
+    <format dxfId="4">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6825,7 +6167,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="207">
+    <format dxfId="3">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6837,7 +6179,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="206">
+    <format dxfId="2">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6849,7 +6191,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="205">
+    <format dxfId="1">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6861,7 +6203,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="204">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6884,7 +6226,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表2" cacheId="11" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表2" cacheId="16" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
@@ -6956,25 +6298,25 @@
     <dataField name="求和项:金额（亿元）" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="305">
+    <format dxfId="101">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="304">
+    <format dxfId="100">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="303">
+    <format dxfId="99">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="302">
+    <format dxfId="98">
       <pivotArea outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="301">
+    <format dxfId="97">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="300">
+    <format dxfId="96">
       <pivotArea outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="299">
+    <format dxfId="95">
       <pivotArea outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -7248,7 +6590,7 @@
   <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:G13"/>
+      <selection activeCell="B13" sqref="B12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9621,7 +8963,7 @@
   <dimension ref="A3:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9782,8 +9124,14 @@
       <c r="B9" s="89">
         <v>0.09</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="45">
+        <f>VLOOKUP(A9,$H$4:$J$23,2,FALSE)*B9</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D9" s="45">
+        <f>VLOOKUP(A9,$H$4:$J$23,3,FALSE)*B9</f>
+        <v>7.6499999999999999E-2</v>
+      </c>
       <c r="H9" s="49" t="s">
         <v>18</v>
       </c>
@@ -9907,11 +9255,11 @@
     <row r="18" spans="1:10">
       <c r="C18" s="47">
         <f>(SUM(C5:C17))/3.2</f>
-        <v>3.2812499999999994E-2</v>
+        <v>5.5312499999999994E-2</v>
       </c>
       <c r="D18" s="47">
         <f>(SUM(D5:D17))/3.2</f>
-        <v>0.41874999999999996</v>
+        <v>0.44265624999999992</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>21</v>
@@ -17441,7 +16789,22 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="7" master=""/>
+  <rangeList sheetStid="10" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -17460,21 +16823,6 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="7" master=""/>
-  <rangeList sheetStid="10" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="3"/>
@@ -17489,7 +16837,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -17501,7 +16849,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/桌面/产品管理/教育成长/教育成长.xlsx
+++ b/桌面/产品管理/教育成长/教育成长.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\产品管理\教育成长\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B871F8-DE5D-4EF5-B082-CBFABC21D775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7545E14-28F5-4DF3-B096-F9108CC602D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="交易数据表" sheetId="3" r:id="rId1"/>
@@ -28,8 +28,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId9"/>
-    <pivotCache cacheId="17" r:id="rId10"/>
+    <pivotCache cacheId="22" r:id="rId9"/>
+    <pivotCache cacheId="26" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="262">
   <si>
     <t>序号</t>
   </si>
@@ -939,6 +939,21 @@
     <t>优先股专户</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>20国债11</t>
+  </si>
+  <si>
+    <t>20国债11</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>国债现金比例</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -953,7 +968,7 @@
     <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
     <numFmt numFmtId="182" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1092,13 +1107,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1653,22 +1661,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" pivotButton="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" pivotButton="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1676,7 +1684,199 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="204">
+    <dxf>
+      <numFmt numFmtId="183" formatCode="0.00_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="182" formatCode="0.000"/>
     </dxf>
@@ -1771,202 +1971,40 @@
       <numFmt numFmtId="182" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="183" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1985,6 +2023,34 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
     </dxf>
     <dxf>
@@ -2019,6 +2085,291 @@
         <outline val="0"/>
         <shadow val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode="0.00_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2113,7 +2464,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="44551.670949652776" createdVersion="7" refreshedVersion="7" minRefreshableVersion="1" recordCount="118" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="44553.375920138889" createdVersion="7" refreshedVersion="7" minRefreshableVersion="1" recordCount="118" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:I4953" sheet="交易数据表"/>
   </cacheSource>
@@ -2128,8 +2479,8 @@
         <s v="通道专户"/>
         <s v="信用债专户"/>
         <s v="优先股专户"/>
+        <s v="国债现金比例"/>
         <m/>
-        <s v="国债现金比例" u="1"/>
         <s v="主动股票型基金" u="1"/>
         <s v="增强指数型基金" u="1"/>
         <s v="股票" u="1"/>
@@ -2152,7 +2503,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="金额（亿元）" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.03" maxValue="2.39"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.03" maxValue="2.56"/>
     </cacheField>
     <cacheField name="交易日期" numFmtId="0">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-12-15T00:00:00" maxDate="2021-12-22T00:00:00"/>
@@ -2179,7 +2530,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="44551.671077777777" createdVersion="7" refreshedVersion="7" minRefreshableVersion="1" recordCount="118" xr:uid="{00000000-000A-0000-FFFF-FFFF08000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="44553.375997453702" createdVersion="7" refreshedVersion="7" minRefreshableVersion="1" recordCount="118" xr:uid="{00000000-000A-0000-FFFF-FFFF08000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1087" sheet="交易数据表"/>
   </cacheSource>
@@ -2188,7 +2539,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="94"/>
     </cacheField>
     <cacheField name="资管计划/基金名称" numFmtId="0">
-      <sharedItems containsBlank="1" count="133">
+      <sharedItems containsBlank="1" count="134">
         <s v="平安添利A"/>
         <s v="招商安华A"/>
         <s v="广发集丰A"/>
@@ -2200,128 +2551,129 @@
         <s v="易方达稳健收益B"/>
         <s v="华夏希望债券A"/>
         <s v="光证资管鑫优4号"/>
+        <s v="20国债11"/>
         <m/>
         <s v="总计"/>
+        <s v="证券ETF" u="1"/>
+        <s v="易方达裕祥回报" u="1"/>
+        <s v="拓普集团" u="1"/>
+        <s v="半导体ETF" u="1"/>
+        <s v="牧原股份" u="1"/>
+        <s v="阳光电源" u="1"/>
+        <s v="工银瑞信双利A" u="1"/>
+        <s v="光大期货光大理财阳光橙精选1号" u="1"/>
+        <s v="5G ETF" u="1"/>
+        <s v="广发基金阳光增盈稳健3号" u="1"/>
+        <s v="深信服" u="1"/>
+        <s v="泰达宏利转型机遇C " u="1"/>
+        <s v="博时基金阳光量化1号" u="1"/>
+        <s v="东方红汇利A" u="1"/>
+        <s v="光证资管鑫优2号" u="1"/>
+        <s v="招商财富-阳光4号" u="1"/>
+        <s v="信达澳银新能源产业" u="1"/>
+        <s v="中邮新思路" u="1"/>
+        <s v="中欧基金阳光增盈稳健3号集合资产管理计划" u="1"/>
+        <s v="腾讯控股" u="1"/>
+        <s v="工银瑞信前沿医疗A " u="1"/>
+        <s v="东方汇智汇融6号" u="1"/>
+        <s v="宁德时代" u="1"/>
+        <s v="中信阳光1号" u="1"/>
+        <s v="新能车ETF" u="1"/>
+        <s v="南方高端装备A" u="1"/>
+        <s v="军工龙头ETF" u="1"/>
+        <s v="华夏基金-阳光量化对冲1号" u="1"/>
+        <s v="泰达宏利转型机遇A" u="1"/>
+        <s v="中银稳健添利C" u="1"/>
+        <s v="长信基金-光大理财中证500指数增强专户" u="1"/>
+        <s v="恩捷股份" u="1"/>
+        <s v="新能源车ETF" u="1"/>
         <s v="药明生物" u="1"/>
-        <s v="泰达宏利转型机遇A" u="1"/>
-        <s v="国投瑞银优化增强AB" u="1"/>
-        <s v="半导体ETF" u="1"/>
-        <s v="光大期货恒乐宏观1号" u="1"/>
-        <s v="光大永明资产聚优1号权益类资产管理产品" u="1"/>
-        <s v="康龙化成" u="1"/>
-        <s v="恩捷股份" u="1"/>
+        <s v="泰康稳健增利A" u="1"/>
         <s v="华安安康A" u="1"/>
-        <s v="光大期货创新优选4号" u="1"/>
+        <s v="芯片ETF" u="1"/>
+        <s v="华夏基金阳光增盈稳健3号" u="1"/>
+        <s v="广发多因子" u="1"/>
+        <s v="科创50" u="1"/>
+        <s v="光证资管-光大理财阳光红精选10号" u="1"/>
+        <s v="中银资管汇阳光1号" u="1"/>
+        <s v="农业ETF" u="1"/>
+        <s v="鹏华基金阳光1号" u="1"/>
+        <s v="工银瑞信前沿医疗A" u="1"/>
         <s v="光证资管阳光红精选6号" u="1"/>
-        <s v="工银瑞信双利A" u="1"/>
-        <s v="海富通-阳光量化1号" u="1"/>
-        <s v="科创50" u="1"/>
-        <s v="大成新锐产业 " u="1"/>
-        <s v="拓普集团" u="1"/>
-        <s v="腾讯控股" u="1"/>
-        <s v="新源能车ETF" u="1"/>
-        <s v="光证资管阳光红精选7号" u="1"/>
-        <s v="东方红汇利A" u="1"/>
-        <s v="鹏华基金阳光1号" u="1"/>
-        <s v="东方红汇利A " u="1"/>
-        <s v="中信期货阳光1号" u="1"/>
-        <s v="光大保德信-光大理财量化对冲1号" u="1"/>
-        <s v="光证资管诚享8号" u="1"/>
-        <s v="华安安信消费服务" u="1"/>
-        <s v="华夏基金阳光增盈稳健3号" u="1"/>
-        <s v="光大期货光大理财阳光橙精选1号" u="1"/>
-        <s v="泰康稳健增利A" u="1"/>
+        <s v="国泰君安期货君合光耀6号" u="1"/>
+        <s v="致诚26" u="1"/>
         <s v="鹏华基金阳光2号" u="1"/>
-        <s v="农银汇理研究精选" u="1"/>
-        <s v="鹏华双债保利" u="1"/>
-        <s v="鹏扬汇利A " u="1"/>
-        <s v="宁德时代" u="1"/>
         <s v="大成新锐产业" u="1"/>
         <s v="鹏华基金阳光3号" u="1"/>
-        <s v="中欧基金阳光增盈稳健3号集合资产管理计划" u="1"/>
+        <s v="易方达信息产业" u="1"/>
+        <s v="鹏华信用增利A" u="1"/>
+        <s v="鹏华基金阳光4号" u="1"/>
+        <s v="汇添富绝对收益" u="1"/>
+        <s v="鹏华基金阳光5号" u="1"/>
+        <s v="国泰君安期货君合光耀8号" u="1"/>
+        <s v="招商银行" u="1"/>
+        <s v="招商财富-阳光5号" u="1"/>
+        <s v="光大期货恒乐宏观1号" u="1"/>
+        <s v="景顺长城景颐双利C " u="1"/>
+        <s v="东方财富" u="1"/>
         <s v="建信稳健得利A" u="1"/>
+        <s v="鹏华双债保利" u="1"/>
+        <s v="西部利得沪深300指数增强A" u="1"/>
+        <s v="光大期货创新优选4号" u="1"/>
+        <s v="东方汇智-光大银行-博普套利1号" u="1"/>
+        <s v="亿纬锂能" u="1"/>
+        <s v="易方达稳健收益" u="1"/>
+        <s v="光证资管鑫优集合资产管理计划" u="1"/>
+        <s v="中欧先进制造C" u="1"/>
+        <s v="光证资管鑫优2号集合资产管理计划" u="1"/>
+        <s v="汇添富绝对收益3号" u="1"/>
+        <s v="申万菱信光银阳光量化1号" u="1"/>
+        <s v="中信证券阳光恒优集合资产管理计划" u="1"/>
+        <s v="华夏国证半导体芯片ETF" u="1"/>
+        <s v="国投瑞银优化增强AB" u="1"/>
+        <s v="创业板50" u="1"/>
+        <s v="富国消费主题A" u="1"/>
+        <s v="光证资管优选基金宝（MOM" u="1"/>
+        <s v="科达利" u="1"/>
+        <s v="创蓝筹" u="1"/>
+        <s v="光大保德信-光大理财量化对冲1号" u="1"/>
+        <s v="天弘增强回报A" u="1"/>
+        <s v="广发聚鑫A" u="1"/>
+        <s v="中信期货阳光红中证500指数增强1号" u="1"/>
+        <s v="华泰新悦阳光5号" u="1"/>
         <s v="东方汇智-汇融6号" u="1"/>
-        <s v="芯片ETF" u="1"/>
-        <s v="光证资管优选基金宝（MOM" u="1"/>
+        <s v="中信期货阳光1号" u="1"/>
+        <s v="景顺长城景颐双利A" u="1"/>
+        <s v="鹏华信用增利AA" u="1"/>
+        <s v="新源能车ETF" u="1"/>
+        <s v="光伏ETF" u="1"/>
+        <s v="鹏扬汇利A " u="1"/>
+        <s v="大成新锐产业 " u="1"/>
+        <s v="泰康安惠纯债A" u="1"/>
+        <s v="鹏扬汇利A" u="1"/>
+        <s v="长信基金量化2号" u="1"/>
+        <s v="工银瑞信产业债A" u="1"/>
+        <s v="光证资管阳光红精选7号" u="1"/>
+        <s v="工银瑞信医药健康C" u="1"/>
+        <s v="光大永明资产聚优1号权益类资产管理产品" u="1"/>
+        <s v="汇添富全球医疗" u="1"/>
         <s v="科技ETF" u="1"/>
-        <s v="鹏华基金阳光4号" u="1"/>
-        <s v="国泰君安期货君合光耀6号" u="1"/>
-        <s v="致诚26" u="1"/>
-        <s v="创业板50" u="1"/>
-        <s v="鹏华基金阳光5号" u="1"/>
+        <s v="东方红汇利A " u="1"/>
+        <s v="大成基金阳光增盈稳健3号集合资产管理计划" u="1"/>
+        <s v="农银汇理研究精选" u="1"/>
+        <s v="华安安信消费服务" u="1"/>
+        <s v="芯片ETF(沪市）" u="1"/>
+        <s v="华夏中证5G通信主题ETF" u="1"/>
+        <s v="海富通-阳光量化1号" u="1"/>
+        <s v="21国债10" u="1"/>
+        <s v="康龙化成" u="1"/>
         <s v="伊利股份" u="1"/>
-        <s v="鹏华信用增利A" u="1"/>
-        <s v="招商财富-阳光5号" u="1"/>
-        <s v="景顺长城景颐双利A" u="1"/>
-        <s v="汇添富绝对收益3号" u="1"/>
-        <s v="华夏中证5G通信主题ETF" u="1"/>
-        <s v="新能源车ETF" u="1"/>
-        <s v="广发基金阳光增盈稳健3号" u="1"/>
-        <s v="华夏基金-阳光量化对冲1号" u="1"/>
-        <s v="泰康安惠纯债A" u="1"/>
-        <s v="招商银行" u="1"/>
-        <s v="中银稳健添利C" u="1"/>
-        <s v="东方汇智汇融6号" u="1"/>
-        <s v="光伏ETF" u="1"/>
-        <s v="南方高端装备A" u="1"/>
-        <s v="5G ETF" u="1"/>
-        <s v="芯片ETF(沪市）" u="1"/>
-        <s v="光证资管鑫优集合资产管理计划" u="1"/>
-        <s v="鹏扬汇利A" u="1"/>
+        <s v="光大期货恒盛宏观1号" u="1"/>
+        <s v="光证资管诚享8号" u="1"/>
         <s v="光证资管量化对冲阳光3号" u="1"/>
-        <s v="中信证券阳光恒优集合资产管理计划" u="1"/>
-        <s v="景顺长城景颐双利C " u="1"/>
-        <s v="光证资管鑫优2号集合资产管理计划" u="1"/>
-        <s v="牧原股份" u="1"/>
-        <s v="工银瑞信医药健康C" u="1"/>
-        <s v="工银瑞信前沿医疗A " u="1"/>
-        <s v="东方财富" u="1"/>
-        <s v="光大期货恒盛宏观1号" u="1"/>
-        <s v="西部利得沪深300指数增强A" u="1"/>
-        <s v="证券ETF" u="1"/>
-        <s v="21国债10" u="1"/>
-        <s v="富国消费主题A" u="1"/>
-        <s v="国泰君安期货君合光耀8号" u="1"/>
-        <s v="易方达裕祥回报" u="1"/>
-        <s v="长信基金量化2号" u="1"/>
-        <s v="鹏华信用增利AA" u="1"/>
-        <s v="招商财富-阳光4号" u="1"/>
+        <s v="国君光耀2号" u="1"/>
+        <s v="汇添富双利C" u="1"/>
         <s v="光证资管量化对冲阳光4号" u="1"/>
-        <s v="申万菱信光银阳光量化1号" u="1"/>
-        <s v="广发多因子" u="1"/>
-        <s v="科达利" u="1"/>
-        <s v="东方汇智-光大银行-博普套利1号" u="1"/>
-        <s v="天弘增强回报A" u="1"/>
-        <s v="中欧先进制造C" u="1"/>
-        <s v="光证资管鑫优2号" u="1"/>
-        <s v="阳光电源" u="1"/>
-        <s v="易方达稳健收益" u="1"/>
-        <s v="创蓝筹" u="1"/>
-        <s v="中银资管汇阳光1号" u="1"/>
-        <s v="华泰新悦阳光5号" u="1"/>
-        <s v="博时基金阳光量化1号" u="1"/>
-        <s v="长信基金-光大理财中证500指数增强专户" u="1"/>
-        <s v="中邮新思路" u="1"/>
-        <s v="汇添富双利C" u="1"/>
-        <s v="工银瑞信前沿医疗A" u="1"/>
-        <s v="工银瑞信产业债A" u="1"/>
-        <s v="新能车ETF" u="1"/>
-        <s v="军工龙头ETF" u="1"/>
-        <s v="光证资管-光大理财阳光红精选10号" u="1"/>
-        <s v="信达澳银新能源产业" u="1"/>
-        <s v="农业ETF" u="1"/>
-        <s v="汇添富绝对收益" u="1"/>
-        <s v="国君光耀2号" u="1"/>
-        <s v="深信服" u="1"/>
-        <s v="易方达信息产业" u="1"/>
-        <s v="泰达宏利转型机遇C " u="1"/>
-        <s v="华夏国证半导体芯片ETF" u="1"/>
-        <s v="中信期货阳光红中证500指数增强1号" u="1"/>
-        <s v="广发聚鑫A" u="1"/>
-        <s v="亿纬锂能" u="1"/>
-        <s v="中信阳光1号" u="1"/>
-        <s v="汇添富全球医疗" u="1"/>
-        <s v="大成基金阳光增盈稳健3号集合资产管理计划" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="专户代码（投资策略）" numFmtId="0">
@@ -2331,8 +2683,8 @@
         <s v="通道专户"/>
         <s v="信用债专户"/>
         <s v="优先股专户"/>
+        <s v="国债现金比例"/>
         <m/>
-        <s v="国债现金比例" u="1"/>
         <s v="主动股票型基金" u="1"/>
         <s v="增强指数型基金" u="1"/>
         <s v="股票" u="1"/>
@@ -2350,7 +2702,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="金额（亿元）" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.03" maxValue="2.39"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.03" maxValue="2.56"/>
     </cacheField>
     <cacheField name="交易日期" numFmtId="0">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-12-15T00:00:00" maxDate="2021-12-22T00:00:00"/>
@@ -2499,868 +2851,868 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <s v="20国债11"/>
     <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
+    <n v="0.17"/>
+    <d v="2021-12-15T00:00:00"/>
+    <s v="买入"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3370,187 +3722,187 @@
   </r>
   <r>
     <s v="总计"/>
-    <x v="5"/>
-    <n v="2.39"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
+    <x v="6"/>
+    <n v="2.56"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3699,17 +4051,17 @@
     <n v="13"/>
     <x v="11"/>
     <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="0.17"/>
+    <d v="2021-12-15T00:00:00"/>
+    <s v="买入"/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="14"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3719,8 +4071,8 @@
   </r>
   <r>
     <n v="15"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3730,8 +4082,8 @@
   </r>
   <r>
     <n v="16"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3741,8 +4093,8 @@
   </r>
   <r>
     <n v="17"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3752,8 +4104,8 @@
   </r>
   <r>
     <n v="18"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3763,8 +4115,8 @@
   </r>
   <r>
     <n v="19"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3774,8 +4126,8 @@
   </r>
   <r>
     <n v="20"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3785,8 +4137,8 @@
   </r>
   <r>
     <n v="21"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3796,8 +4148,8 @@
   </r>
   <r>
     <n v="22"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3807,8 +4159,8 @@
   </r>
   <r>
     <n v="23"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3818,8 +4170,8 @@
   </r>
   <r>
     <n v="24"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3829,8 +4181,8 @@
   </r>
   <r>
     <n v="25"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3840,8 +4192,8 @@
   </r>
   <r>
     <n v="26"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3851,8 +4203,8 @@
   </r>
   <r>
     <n v="27"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3862,8 +4214,8 @@
   </r>
   <r>
     <n v="28"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3873,8 +4225,8 @@
   </r>
   <r>
     <n v="29"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3884,8 +4236,8 @@
   </r>
   <r>
     <n v="30"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3895,8 +4247,8 @@
   </r>
   <r>
     <n v="31"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3906,8 +4258,8 @@
   </r>
   <r>
     <n v="32"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3917,8 +4269,8 @@
   </r>
   <r>
     <n v="33"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3928,8 +4280,8 @@
   </r>
   <r>
     <n v="34"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3939,8 +4291,8 @@
   </r>
   <r>
     <n v="35"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3950,8 +4302,8 @@
   </r>
   <r>
     <n v="36"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3961,8 +4313,8 @@
   </r>
   <r>
     <n v="37"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3972,8 +4324,8 @@
   </r>
   <r>
     <n v="38"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3983,8 +4335,8 @@
   </r>
   <r>
     <n v="39"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -3994,8 +4346,8 @@
   </r>
   <r>
     <n v="40"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4005,8 +4357,8 @@
   </r>
   <r>
     <n v="41"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4016,8 +4368,8 @@
   </r>
   <r>
     <n v="42"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4027,8 +4379,8 @@
   </r>
   <r>
     <n v="43"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4038,8 +4390,8 @@
   </r>
   <r>
     <n v="44"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4049,8 +4401,8 @@
   </r>
   <r>
     <n v="45"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4060,8 +4412,8 @@
   </r>
   <r>
     <n v="46"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4071,8 +4423,8 @@
   </r>
   <r>
     <n v="47"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4082,8 +4434,8 @@
   </r>
   <r>
     <n v="48"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4093,8 +4445,8 @@
   </r>
   <r>
     <n v="49"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4104,8 +4456,8 @@
   </r>
   <r>
     <n v="50"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4115,8 +4467,8 @@
   </r>
   <r>
     <n v="51"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4126,8 +4478,8 @@
   </r>
   <r>
     <n v="52"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4137,8 +4489,8 @@
   </r>
   <r>
     <n v="53"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4148,8 +4500,8 @@
   </r>
   <r>
     <n v="54"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4159,8 +4511,8 @@
   </r>
   <r>
     <n v="55"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4170,8 +4522,8 @@
   </r>
   <r>
     <n v="56"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4181,8 +4533,8 @@
   </r>
   <r>
     <n v="57"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4192,8 +4544,8 @@
   </r>
   <r>
     <n v="58"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4203,8 +4555,8 @@
   </r>
   <r>
     <n v="59"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4214,8 +4566,8 @@
   </r>
   <r>
     <n v="60"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4225,8 +4577,8 @@
   </r>
   <r>
     <n v="61"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4236,8 +4588,8 @@
   </r>
   <r>
     <n v="62"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4247,8 +4599,8 @@
   </r>
   <r>
     <n v="63"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4258,8 +4610,8 @@
   </r>
   <r>
     <n v="64"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4269,8 +4621,8 @@
   </r>
   <r>
     <n v="65"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4280,8 +4632,8 @@
   </r>
   <r>
     <n v="66"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4291,8 +4643,8 @@
   </r>
   <r>
     <n v="67"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4302,8 +4654,8 @@
   </r>
   <r>
     <n v="68"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4313,8 +4665,8 @@
   </r>
   <r>
     <n v="69"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4324,8 +4676,8 @@
   </r>
   <r>
     <n v="70"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4335,8 +4687,8 @@
   </r>
   <r>
     <n v="71"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4346,8 +4698,8 @@
   </r>
   <r>
     <n v="72"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4357,8 +4709,8 @@
   </r>
   <r>
     <n v="73"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4368,8 +4720,8 @@
   </r>
   <r>
     <n v="74"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4379,8 +4731,8 @@
   </r>
   <r>
     <n v="75"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4390,8 +4742,8 @@
   </r>
   <r>
     <n v="76"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4401,8 +4753,8 @@
   </r>
   <r>
     <n v="77"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4412,8 +4764,8 @@
   </r>
   <r>
     <n v="78"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4423,8 +4775,8 @@
   </r>
   <r>
     <n v="79"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4434,8 +4786,8 @@
   </r>
   <r>
     <n v="80"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4445,8 +4797,8 @@
   </r>
   <r>
     <n v="81"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4456,8 +4808,8 @@
   </r>
   <r>
     <n v="82"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4467,8 +4819,8 @@
   </r>
   <r>
     <n v="83"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4478,8 +4830,8 @@
   </r>
   <r>
     <n v="84"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4489,8 +4841,8 @@
   </r>
   <r>
     <n v="85"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4500,8 +4852,8 @@
   </r>
   <r>
     <n v="86"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4511,8 +4863,8 @@
   </r>
   <r>
     <n v="87"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4522,8 +4874,8 @@
   </r>
   <r>
     <n v="88"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4533,8 +4885,8 @@
   </r>
   <r>
     <n v="89"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4544,8 +4896,8 @@
   </r>
   <r>
     <n v="90"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4555,8 +4907,8 @@
   </r>
   <r>
     <n v="91"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4566,8 +4918,8 @@
   </r>
   <r>
     <n v="92"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4577,8 +4929,8 @@
   </r>
   <r>
     <n v="93"/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4588,272 +4940,272 @@
   </r>
   <r>
     <n v="94"/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
     <x v="12"/>
-    <x v="5"/>
-    <n v="2.39"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="11"/>
-    <x v="5"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="6"/>
+    <n v="2.56"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="12"/>
+    <x v="6"/>
     <m/>
     <m/>
     <m/>
@@ -4865,138 +5217,245 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="数据透视表3" cacheId="17" dataOnRows="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A21:C34" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表2" cacheId="22" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:B11" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1">
+      <items count="27">
+        <item m="1" x="10"/>
+        <item m="1" x="23"/>
+        <item m="1" x="18"/>
+        <item x="1"/>
+        <item m="1" x="20"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item m="1" x="8"/>
+        <item m="1" x="25"/>
+        <item m="1" x="7"/>
+        <item h="1" x="6"/>
+        <item m="1" x="11"/>
+        <item m="1" x="22"/>
+        <item m="1" x="17"/>
+        <item x="3"/>
+        <item m="1" x="13"/>
+        <item m="1" x="21"/>
+        <item m="1" x="16"/>
+        <item x="2"/>
+        <item m="1" x="15"/>
+        <item m="1" x="14"/>
+        <item m="1" x="19"/>
+        <item x="5"/>
+        <item m="1" x="24"/>
+        <item m="1" x="9"/>
+        <item m="1" x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和项:金额（亿元）" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="108">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="107">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="106">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="105">
+      <pivotArea outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="104">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="103">
+      <pivotArea outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="102">
+      <pivotArea outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="None" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="数据透视表3" cacheId="26" dataOnRows="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A21:C35" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1">
-      <items count="134">
+      <items count="135">
+        <item m="1" x="26"/>
+        <item m="1" x="44"/>
+        <item m="1" x="111"/>
+        <item m="1" x="95"/>
+        <item m="1" x="63"/>
+        <item m="1" x="118"/>
+        <item m="1" x="80"/>
+        <item m="1" x="35"/>
+        <item m="1" x="101"/>
+        <item m="1" x="112"/>
+        <item m="1" x="34"/>
+        <item m="1" x="20"/>
+        <item m="1" x="96"/>
+        <item m="1" x="115"/>
+        <item m="1" x="129"/>
+        <item m="1" x="130"/>
+        <item m="1" x="133"/>
+        <item m="1" x="85"/>
+        <item m="1" x="59"/>
+        <item m="1" x="113"/>
+        <item m="1" x="52"/>
+        <item m="1" x="23"/>
+        <item m="1" x="131"/>
+        <item m="1" x="60"/>
+        <item m="1" x="90"/>
+        <item m="1" x="124"/>
+        <item m="1" x="100"/>
+        <item m="1" x="51"/>
+        <item m="1" x="68"/>
+        <item m="1" x="86"/>
+        <item m="1" x="132"/>
+        <item m="1" x="40"/>
+        <item m="1" x="53"/>
+        <item m="1" x="62"/>
+        <item m="1" x="77"/>
         <item m="1" x="110"/>
-        <item m="1" x="111"/>
-        <item m="1" x="94"/>
+        <item m="1" x="42"/>
+        <item m="1" x="48"/>
+        <item m="1" x="78"/>
+        <item m="1" x="30"/>
+        <item x="8"/>
+        <item m="1" x="29"/>
+        <item m="1" x="72"/>
+        <item m="1" x="14"/>
+        <item m="1" x="84"/>
+        <item m="1" x="99"/>
+        <item m="1" x="37"/>
+        <item m="1" x="43"/>
+        <item m="1" x="55"/>
+        <item m="1" x="31"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item m="1" x="39"/>
+        <item m="1" x="116"/>
+        <item m="1" x="38"/>
+        <item m="1" x="57"/>
+        <item m="1" x="64"/>
+        <item m="1" x="67"/>
+        <item m="1" x="69"/>
+        <item m="1" x="88"/>
+        <item m="1" x="119"/>
+        <item m="1" x="25"/>
         <item m="1" x="107"/>
-        <item m="1" x="47"/>
-        <item m="1" x="34"/>
-        <item m="1" x="101"/>
-        <item m="1" x="72"/>
-        <item m="1" x="51"/>
-        <item m="1" x="115"/>
-        <item m="1" x="85"/>
-        <item m="1" x="24"/>
-        <item m="1" x="36"/>
-        <item m="1" x="18"/>
-        <item m="1" x="37"/>
+        <item m="1" x="123"/>
+        <item m="1" x="89"/>
+        <item m="1" x="91"/>
+        <item m="1" x="108"/>
+        <item m="1" x="58"/>
+        <item m="1" x="121"/>
+        <item m="1" x="74"/>
+        <item m="1" x="15"/>
+        <item m="1" x="128"/>
+        <item m="1" x="73"/>
+        <item m="1" x="92"/>
+        <item m="1" x="32"/>
+        <item m="1" x="102"/>
+        <item m="1" x="109"/>
+        <item x="0"/>
+        <item m="1" x="61"/>
+        <item m="1" x="103"/>
+        <item m="1" x="87"/>
+        <item m="1" x="70"/>
+        <item m="1" x="41"/>
+        <item m="1" x="28"/>
+        <item m="1" x="21"/>
+        <item x="7"/>
+        <item m="1" x="27"/>
         <item m="1" x="79"/>
-        <item m="1" x="97"/>
+        <item m="1" x="120"/>
+        <item m="1" x="93"/>
+        <item x="9"/>
         <item m="1" x="82"/>
-        <item m="1" x="23"/>
-        <item m="1" x="31"/>
-        <item m="1" x="99"/>
-        <item m="1" x="67"/>
+        <item m="1" x="83"/>
+        <item m="1" x="50"/>
+        <item m="1" x="54"/>
+        <item m="1" x="106"/>
+        <item m="1" x="46"/>
+        <item m="1" x="125"/>
+        <item m="1" x="76"/>
+        <item m="1" x="98"/>
         <item m="1" x="122"/>
         <item m="1" x="56"/>
-        <item m="1" x="15"/>
-        <item m="1" x="25"/>
-        <item m="1" x="109"/>
-        <item m="1" x="39"/>
-        <item m="1" x="121"/>
-        <item m="1" x="64"/>
-        <item m="1" x="113"/>
         <item m="1" x="117"/>
-        <item m="1" x="26"/>
-        <item m="1" x="42"/>
-        <item m="1" x="44"/>
-        <item m="1" x="78"/>
-        <item m="1" x="14"/>
-        <item m="1" x="41"/>
-        <item m="1" x="88"/>
-        <item m="1" x="119"/>
-        <item x="8"/>
-        <item m="1" x="96"/>
-        <item m="1" x="62"/>
-        <item m="1" x="89"/>
-        <item m="1" x="103"/>
+        <item m="1" x="49"/>
+        <item m="1" x="75"/>
+        <item m="1" x="45"/>
+        <item m="1" x="126"/>
+        <item m="1" x="94"/>
+        <item m="1" x="18"/>
+        <item m="1" x="36"/>
+        <item m="1" x="24"/>
+        <item m="1" x="16"/>
+        <item m="1" x="33"/>
+        <item m="1" x="19"/>
         <item m="1" x="127"/>
-        <item m="1" x="130"/>
+        <item m="1" x="81"/>
         <item m="1" x="71"/>
-        <item m="1" x="108"/>
-        <item m="1" x="112"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item m="1" x="74"/>
-        <item m="1" x="131"/>
-        <item m="1" x="116"/>
-        <item m="1" x="33"/>
-        <item m="1" x="48"/>
-        <item m="1" x="55"/>
-        <item m="1" x="59"/>
-        <item m="1" x="80"/>
-        <item m="1" x="132"/>
-        <item m="1" x="125"/>
-        <item m="1" x="45"/>
+        <item m="1" x="47"/>
         <item m="1" x="65"/>
-        <item m="1" x="126"/>
-        <item m="1" x="58"/>
-        <item m="1" x="27"/>
+        <item m="1" x="22"/>
+        <item m="1" x="104"/>
+        <item m="1" x="66"/>
         <item m="1" x="114"/>
-        <item m="1" x="38"/>
-        <item m="1" x="81"/>
-        <item m="1" x="93"/>
-        <item m="1" x="87"/>
+        <item m="1" x="97"/>
         <item m="1" x="17"/>
-        <item m="1" x="91"/>
-        <item m="1" x="49"/>
-        <item m="1" x="35"/>
-        <item m="1" x="69"/>
-        <item x="0"/>
-        <item m="1" x="57"/>
-        <item m="1" x="63"/>
-        <item m="1" x="98"/>
-        <item m="1" x="92"/>
-        <item m="1" x="68"/>
-        <item m="1" x="104"/>
-        <item m="1" x="40"/>
-        <item x="7"/>
-        <item m="1" x="32"/>
-        <item m="1" x="22"/>
-        <item m="1" x="43"/>
-        <item m="1" x="53"/>
-        <item x="9"/>
-        <item m="1" x="106"/>
-        <item m="1" x="77"/>
-        <item m="1" x="52"/>
-        <item m="1" x="118"/>
-        <item m="1" x="73"/>
-        <item m="1" x="66"/>
-        <item m="1" x="90"/>
-        <item m="1" x="50"/>
-        <item m="1" x="128"/>
-        <item m="1" x="76"/>
-        <item m="1" x="120"/>
-        <item m="1" x="54"/>
-        <item m="1" x="21"/>
-        <item m="1" x="86"/>
-        <item m="1" x="20"/>
-        <item m="1" x="19"/>
-        <item m="1" x="100"/>
-        <item m="1" x="83"/>
-        <item m="1" x="46"/>
-        <item m="1" x="123"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
         <item m="1" x="105"/>
-        <item m="1" x="60"/>
-        <item m="1" x="129"/>
-        <item m="1" x="70"/>
-        <item m="1" x="13"/>
-        <item m="1" x="124"/>
-        <item m="1" x="75"/>
-        <item m="1" x="95"/>
-        <item m="1" x="61"/>
-        <item m="1" x="84"/>
-        <item m="1" x="102"/>
-        <item m="1" x="16"/>
-        <item m="1" x="30"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -5004,6 +5463,7 @@
         <item x="5"/>
         <item x="6"/>
         <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5021,12 +5481,12 @@
         <item m="1" x="8"/>
         <item m="1" x="20"/>
         <item m="1" x="7"/>
-        <item h="1" x="5"/>
+        <item h="1" x="6"/>
         <item m="1" x="13"/>
         <item x="3"/>
         <item x="2"/>
         <item m="1" x="15"/>
-        <item m="1" x="6"/>
+        <item x="5"/>
         <item m="1" x="19"/>
         <item m="1" x="9"/>
         <item m="1" x="12"/>
@@ -5043,7 +5503,7 @@
     <field x="2"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="13">
     <i>
       <x v="4"/>
       <x v="40"/>
@@ -5082,6 +5542,10 @@
       <x v="15"/>
       <x v="129"/>
     </i>
+    <i>
+      <x v="17"/>
+      <x v="133"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -5093,13 +5557,13 @@
     <dataField name="求和项:金额（亿元）" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="95">
-    <format dxfId="94">
+    <format dxfId="203">
       <pivotArea outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="202">
       <pivotArea outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="201">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5111,7 +5575,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="91">
+    <format dxfId="200">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5123,7 +5587,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="199">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5135,7 +5599,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="198">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5147,7 +5611,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="197">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5159,7 +5623,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="196">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5171,7 +5635,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="195">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5183,7 +5647,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="194">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5195,7 +5659,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="193">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5207,7 +5671,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="192">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5219,7 +5683,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="191">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5231,7 +5695,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="190">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5243,7 +5707,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="189">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5255,7 +5719,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="188">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5267,7 +5731,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="187">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5279,7 +5743,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="186">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5291,7 +5755,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="185">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5303,7 +5767,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="184">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5315,7 +5779,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="183">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5327,7 +5791,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="182">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5339,7 +5803,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="181">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5351,7 +5815,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="180">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5363,7 +5827,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="179">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5375,7 +5839,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="178">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5387,7 +5851,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="177">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5399,7 +5863,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="176">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5411,7 +5875,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="175">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5423,7 +5887,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="174">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5435,7 +5899,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="173">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5447,7 +5911,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="172">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5459,7 +5923,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="171">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5471,7 +5935,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="170">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5483,7 +5947,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="169">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5495,7 +5959,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="168">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5507,7 +5971,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="167">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5519,7 +5983,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="166">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5531,7 +5995,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="165">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5543,7 +6007,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="164">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5555,7 +6019,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="163">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5567,7 +6031,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="162">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5579,7 +6043,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="161">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5591,7 +6055,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="160">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5603,7 +6067,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="159">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5615,7 +6079,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="158">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5627,7 +6091,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="157">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5639,7 +6103,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="156">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5651,7 +6115,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="155">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5663,7 +6127,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="154">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5675,7 +6139,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="153">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5687,7 +6151,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="152">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5699,7 +6163,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="151">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5711,7 +6175,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="150">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5723,7 +6187,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="149">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5735,7 +6199,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="148">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5747,7 +6211,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="147">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5759,7 +6223,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="146">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5771,7 +6235,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="145">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5783,7 +6247,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="144">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5795,7 +6259,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="143">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5807,7 +6271,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="142">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5819,7 +6283,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="141">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5831,7 +6295,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="140">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5843,7 +6307,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="139">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5855,7 +6319,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="138">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5867,7 +6331,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="137">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5879,7 +6343,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="136">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5891,7 +6355,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="135">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5903,7 +6367,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="134">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5915,7 +6379,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="133">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5927,7 +6391,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="132">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5939,7 +6403,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="131">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5951,7 +6415,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="130">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5963,7 +6427,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="129">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5975,7 +6439,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="128">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5987,7 +6451,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="127">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5999,7 +6463,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="126">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6011,7 +6475,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="125">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6023,7 +6487,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="124">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6035,7 +6499,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="123">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6047,7 +6511,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="122">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6059,7 +6523,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="121">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6071,7 +6535,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="120">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6083,7 +6547,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="119">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6095,7 +6559,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="118">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6107,7 +6571,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="117">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6119,7 +6583,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="116">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6131,7 +6595,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="115">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6143,7 +6607,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="114">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6155,7 +6619,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="113">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6167,7 +6631,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="112">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6179,7 +6643,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="111">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6191,7 +6655,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="110">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6203,7 +6667,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="109">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6214,110 +6678,6 @@
           </reference>
         </references>
       </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="None" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表2" cacheId="16" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:B10" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1">
-      <items count="27">
-        <item m="1" x="10"/>
-        <item m="1" x="23"/>
-        <item m="1" x="18"/>
-        <item x="1"/>
-        <item m="1" x="20"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item m="1" x="8"/>
-        <item m="1" x="25"/>
-        <item m="1" x="7"/>
-        <item h="1" x="5"/>
-        <item m="1" x="11"/>
-        <item m="1" x="22"/>
-        <item m="1" x="17"/>
-        <item x="3"/>
-        <item m="1" x="13"/>
-        <item m="1" x="21"/>
-        <item m="1" x="16"/>
-        <item x="2"/>
-        <item m="1" x="15"/>
-        <item m="1" x="14"/>
-        <item m="1" x="19"/>
-        <item m="1" x="6"/>
-        <item m="1" x="24"/>
-        <item m="1" x="9"/>
-        <item m="1" x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="求和项:金额（亿元）" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="101">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="100">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="99">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="98">
-      <pivotArea outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="97">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="96">
-      <pivotArea outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="95">
-      <pivotArea outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="None" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -6589,8 +6949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B12:G13"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6928,10 +7288,10 @@
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="104" t="s">
         <v>253</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="104" t="s">
         <v>234</v>
       </c>
       <c r="D11" s="8">
@@ -6959,10 +7319,10 @@
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="104" t="s">
         <v>234</v>
       </c>
       <c r="D12" s="64">
@@ -6993,7 +7353,7 @@
       <c r="B13" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="104" t="s">
         <v>257</v>
       </c>
       <c r="D13" s="8">
@@ -7021,11 +7381,21 @@
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="E14" s="54">
+        <v>44545</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>260</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -8653,7 +9023,7 @@
       <c r="C101" s="8"/>
       <c r="D101" s="8">
         <f>SUM(D2:D100)</f>
-        <v>2.39</v>
+        <v>2.56</v>
       </c>
       <c r="E101" s="74"/>
       <c r="F101" s="55"/>
@@ -8962,8 +9332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8978,10 +9348,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="48"/>
@@ -8992,7 +9362,7 @@
       <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="107" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="49" t="s">
@@ -9144,13 +9514,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="49" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="B10" s="89">
-        <v>2.3899999999999997</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
+        <v>0.17</v>
+      </c>
+      <c r="C10" s="45">
+        <f>VLOOKUP(A10,$H$4:$J$23,2,FALSE)*B10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="45">
+        <f>VLOOKUP(A10,$H$4:$J$23,3,FALSE)*B10</f>
+        <v>0</v>
+      </c>
       <c r="H10" s="49" t="s">
         <v>9</v>
       </c>
@@ -9162,6 +9538,12 @@
       </c>
     </row>
     <row r="11" spans="1:10">
+      <c r="A11" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="89">
+        <v>2.5599999999999996</v>
+      </c>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
       <c r="H11" s="49" t="s">
@@ -9350,25 +9732,25 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="104"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="C24" s="107">
+      <c r="C24" s="105">
         <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="104"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="107">
+      <c r="C25" s="105">
         <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="104"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="52" t="s">
         <v>239</v>
       </c>
@@ -9377,7 +9759,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="104"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="52" t="s">
         <v>240</v>
       </c>
@@ -9386,7 +9768,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="104"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="52" t="s">
         <v>241</v>
       </c>
@@ -9395,7 +9777,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="104"/>
+      <c r="A29" s="102"/>
       <c r="B29" s="52" t="s">
         <v>248</v>
       </c>
@@ -9448,12 +9830,23 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="95">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="93" t="s">
         <v>238</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="97">
-        <v>2.3899999999999997</v>
+      <c r="B35" s="103"/>
+      <c r="C35" s="97">
+        <v>2.5599999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -16789,22 +17182,20 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="7"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="8"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="7" master=""/>
-  <rangeList sheetStid="10" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -16823,39 +17214,41 @@
 </woProps>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="7"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="8"/>
-</pixelators>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="7" master=""/>
+  <rangeList sheetStid="10" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/桌面/产品管理/教育成长/教育成长.xlsx
+++ b/桌面/产品管理/教育成长/教育成长.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\产品管理\教育成长\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7545E14-28F5-4DF3-B096-F9108CC602D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78DB679-7651-466B-9297-27F3ADAF4C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="交易数据表" sheetId="3" r:id="rId1"/>
@@ -28,8 +28,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId9"/>
-    <pivotCache cacheId="26" r:id="rId10"/>
+    <pivotCache cacheId="13" r:id="rId9"/>
+    <pivotCache cacheId="17" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="266">
   <si>
     <t>序号</t>
   </si>
@@ -953,6 +953,21 @@
   <si>
     <t>国债现金比例</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏基金阳光增盈1号</t>
+  </si>
+  <si>
+    <t>华夏基金阳光增盈1号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>定增专户</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>定增专户</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1356,7 +1371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1679,12 +1694,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" pivotButton="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="204">
+  <dxfs count="225">
     <dxf>
       <numFmt numFmtId="183" formatCode="0.00_ "/>
     </dxf>
@@ -1969,6 +1987,180 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="182" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -2464,7 +2656,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="44553.375920138889" createdVersion="7" refreshedVersion="7" minRefreshableVersion="1" recordCount="118" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="44554.620762268518" createdVersion="7" refreshedVersion="7" minRefreshableVersion="1" recordCount="118" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:I4953" sheet="交易数据表"/>
   </cacheSource>
@@ -2480,6 +2672,7 @@
         <s v="信用债专户"/>
         <s v="优先股专户"/>
         <s v="国债现金比例"/>
+        <s v="定增专户"/>
         <m/>
         <s v="主动股票型基金" u="1"/>
         <s v="增强指数型基金" u="1"/>
@@ -2496,14 +2689,13 @@
         <s v="股票MOM" u="1"/>
         <s v="量化策略" u="1"/>
         <s v="量化专户（千象）" u="1"/>
-        <s v="定增专户" u="1"/>
         <s v="ETF" u="1"/>
         <s v="偏债混合" u="1"/>
         <s v="指数增强" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="金额（亿元）" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.03" maxValue="2.56"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.03" maxValue="2.59"/>
     </cacheField>
     <cacheField name="交易日期" numFmtId="0">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-12-15T00:00:00" maxDate="2021-12-22T00:00:00"/>
@@ -2530,7 +2722,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="44553.375997453702" createdVersion="7" refreshedVersion="7" minRefreshableVersion="1" recordCount="118" xr:uid="{00000000-000A-0000-FFFF-FFFF08000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="44554.620807060186" createdVersion="7" refreshedVersion="7" minRefreshableVersion="1" recordCount="118" xr:uid="{00000000-000A-0000-FFFF-FFFF08000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1087" sheet="交易数据表"/>
   </cacheSource>
@@ -2539,7 +2731,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="94"/>
     </cacheField>
     <cacheField name="资管计划/基金名称" numFmtId="0">
-      <sharedItems containsBlank="1" count="134">
+      <sharedItems containsBlank="1" count="135">
         <s v="平安添利A"/>
         <s v="招商安华A"/>
         <s v="广发集丰A"/>
@@ -2552,6 +2744,7 @@
         <s v="华夏希望债券A"/>
         <s v="光证资管鑫优4号"/>
         <s v="20国债11"/>
+        <s v="华夏基金阳光增盈1号"/>
         <m/>
         <s v="总计"/>
         <s v="证券ETF" u="1"/>
@@ -2684,6 +2877,7 @@
         <s v="信用债专户"/>
         <s v="优先股专户"/>
         <s v="国债现金比例"/>
+        <s v="定增专户"/>
         <m/>
         <s v="主动股票型基金" u="1"/>
         <s v="增强指数型基金" u="1"/>
@@ -2695,14 +2889,13 @@
         <s v="打新专户" u="1"/>
         <s v="股票MOM" u="1"/>
         <s v="量化策略" u="1"/>
-        <s v="定增专户" u="1"/>
         <s v="ETF" u="1"/>
         <s v="偏债混合" u="1"/>
         <s v="指数增强" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="金额（亿元）" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.03" maxValue="2.56"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.03" maxValue="2.59"/>
     </cacheField>
     <cacheField name="交易日期" numFmtId="0">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-12-15T00:00:00" maxDate="2021-12-22T00:00:00"/>
@@ -2861,858 +3054,858 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <s v="华夏基金阳光增盈1号"/>
     <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
+    <n v="0.03"/>
+    <d v="2021-12-21T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -3722,187 +3915,187 @@
   </r>
   <r>
     <s v="总计"/>
-    <x v="6"/>
-    <n v="2.56"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
+    <x v="7"/>
+    <n v="2.59"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4062,17 +4255,17 @@
     <n v="14"/>
     <x v="12"/>
     <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="0.03"/>
+    <d v="2021-12-21T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="15"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4082,8 +4275,8 @@
   </r>
   <r>
     <n v="16"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4093,8 +4286,8 @@
   </r>
   <r>
     <n v="17"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4104,8 +4297,8 @@
   </r>
   <r>
     <n v="18"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4115,8 +4308,8 @@
   </r>
   <r>
     <n v="19"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4126,8 +4319,8 @@
   </r>
   <r>
     <n v="20"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4137,8 +4330,8 @@
   </r>
   <r>
     <n v="21"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4148,8 +4341,8 @@
   </r>
   <r>
     <n v="22"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4159,8 +4352,8 @@
   </r>
   <r>
     <n v="23"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4170,8 +4363,8 @@
   </r>
   <r>
     <n v="24"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4181,8 +4374,8 @@
   </r>
   <r>
     <n v="25"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4192,8 +4385,8 @@
   </r>
   <r>
     <n v="26"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4203,8 +4396,8 @@
   </r>
   <r>
     <n v="27"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4214,8 +4407,8 @@
   </r>
   <r>
     <n v="28"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4225,8 +4418,8 @@
   </r>
   <r>
     <n v="29"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4236,8 +4429,8 @@
   </r>
   <r>
     <n v="30"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4247,8 +4440,8 @@
   </r>
   <r>
     <n v="31"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4258,8 +4451,8 @@
   </r>
   <r>
     <n v="32"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4269,8 +4462,8 @@
   </r>
   <r>
     <n v="33"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4280,8 +4473,8 @@
   </r>
   <r>
     <n v="34"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4291,8 +4484,8 @@
   </r>
   <r>
     <n v="35"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4302,8 +4495,8 @@
   </r>
   <r>
     <n v="36"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4313,8 +4506,8 @@
   </r>
   <r>
     <n v="37"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4324,8 +4517,8 @@
   </r>
   <r>
     <n v="38"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4335,8 +4528,8 @@
   </r>
   <r>
     <n v="39"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4346,8 +4539,8 @@
   </r>
   <r>
     <n v="40"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4357,8 +4550,8 @@
   </r>
   <r>
     <n v="41"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4368,8 +4561,8 @@
   </r>
   <r>
     <n v="42"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4379,8 +4572,8 @@
   </r>
   <r>
     <n v="43"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4390,8 +4583,8 @@
   </r>
   <r>
     <n v="44"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4401,8 +4594,8 @@
   </r>
   <r>
     <n v="45"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4412,8 +4605,8 @@
   </r>
   <r>
     <n v="46"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4423,8 +4616,8 @@
   </r>
   <r>
     <n v="47"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4434,8 +4627,8 @@
   </r>
   <r>
     <n v="48"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4445,8 +4638,8 @@
   </r>
   <r>
     <n v="49"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4456,8 +4649,8 @@
   </r>
   <r>
     <n v="50"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4467,8 +4660,8 @@
   </r>
   <r>
     <n v="51"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4478,8 +4671,8 @@
   </r>
   <r>
     <n v="52"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4489,8 +4682,8 @@
   </r>
   <r>
     <n v="53"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4500,8 +4693,8 @@
   </r>
   <r>
     <n v="54"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4511,8 +4704,8 @@
   </r>
   <r>
     <n v="55"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4522,8 +4715,8 @@
   </r>
   <r>
     <n v="56"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4533,8 +4726,8 @@
   </r>
   <r>
     <n v="57"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4544,8 +4737,8 @@
   </r>
   <r>
     <n v="58"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4555,8 +4748,8 @@
   </r>
   <r>
     <n v="59"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4566,8 +4759,8 @@
   </r>
   <r>
     <n v="60"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4577,8 +4770,8 @@
   </r>
   <r>
     <n v="61"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4588,8 +4781,8 @@
   </r>
   <r>
     <n v="62"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4599,8 +4792,8 @@
   </r>
   <r>
     <n v="63"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4610,8 +4803,8 @@
   </r>
   <r>
     <n v="64"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4621,8 +4814,8 @@
   </r>
   <r>
     <n v="65"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4632,8 +4825,8 @@
   </r>
   <r>
     <n v="66"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4643,8 +4836,8 @@
   </r>
   <r>
     <n v="67"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4654,8 +4847,8 @@
   </r>
   <r>
     <n v="68"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4665,8 +4858,8 @@
   </r>
   <r>
     <n v="69"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4676,8 +4869,8 @@
   </r>
   <r>
     <n v="70"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4687,8 +4880,8 @@
   </r>
   <r>
     <n v="71"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4698,8 +4891,8 @@
   </r>
   <r>
     <n v="72"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4709,8 +4902,8 @@
   </r>
   <r>
     <n v="73"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4720,8 +4913,8 @@
   </r>
   <r>
     <n v="74"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4731,8 +4924,8 @@
   </r>
   <r>
     <n v="75"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4742,8 +4935,8 @@
   </r>
   <r>
     <n v="76"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4753,8 +4946,8 @@
   </r>
   <r>
     <n v="77"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4764,8 +4957,8 @@
   </r>
   <r>
     <n v="78"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4775,8 +4968,8 @@
   </r>
   <r>
     <n v="79"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4786,8 +4979,8 @@
   </r>
   <r>
     <n v="80"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4797,8 +4990,8 @@
   </r>
   <r>
     <n v="81"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4808,8 +5001,8 @@
   </r>
   <r>
     <n v="82"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4819,8 +5012,8 @@
   </r>
   <r>
     <n v="83"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4830,8 +5023,8 @@
   </r>
   <r>
     <n v="84"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4841,8 +5034,8 @@
   </r>
   <r>
     <n v="85"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4852,8 +5045,8 @@
   </r>
   <r>
     <n v="86"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4863,8 +5056,8 @@
   </r>
   <r>
     <n v="87"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4874,8 +5067,8 @@
   </r>
   <r>
     <n v="88"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4885,8 +5078,8 @@
   </r>
   <r>
     <n v="89"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4896,8 +5089,8 @@
   </r>
   <r>
     <n v="90"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4907,8 +5100,8 @@
   </r>
   <r>
     <n v="91"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4918,8 +5111,8 @@
   </r>
   <r>
     <n v="92"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4929,8 +5122,8 @@
   </r>
   <r>
     <n v="93"/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -4940,272 +5133,272 @@
   </r>
   <r>
     <n v="94"/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
     <x v="13"/>
-    <x v="6"/>
-    <n v="2.56"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="12"/>
-    <x v="6"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="14"/>
+    <x v="7"/>
+    <n v="2.59"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="13"/>
+    <x v="7"/>
     <m/>
     <m/>
     <m/>
@@ -5217,38 +5410,38 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表2" cacheId="22" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:B11" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表2" cacheId="13" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:B12" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1">
       <items count="27">
-        <item m="1" x="10"/>
+        <item m="1" x="11"/>
         <item m="1" x="23"/>
-        <item m="1" x="18"/>
+        <item m="1" x="19"/>
         <item x="1"/>
-        <item m="1" x="20"/>
+        <item m="1" x="21"/>
         <item x="0"/>
         <item x="4"/>
+        <item m="1" x="9"/>
+        <item m="1" x="25"/>
         <item m="1" x="8"/>
-        <item m="1" x="25"/>
-        <item m="1" x="7"/>
-        <item h="1" x="6"/>
-        <item m="1" x="11"/>
+        <item h="1" x="7"/>
+        <item m="1" x="12"/>
+        <item x="6"/>
+        <item m="1" x="18"/>
+        <item x="3"/>
+        <item m="1" x="14"/>
         <item m="1" x="22"/>
         <item m="1" x="17"/>
-        <item x="3"/>
-        <item m="1" x="13"/>
-        <item m="1" x="21"/>
+        <item x="2"/>
         <item m="1" x="16"/>
-        <item x="2"/>
         <item m="1" x="15"/>
-        <item m="1" x="14"/>
-        <item m="1" x="19"/>
+        <item m="1" x="20"/>
         <item x="5"/>
         <item m="1" x="24"/>
-        <item m="1" x="9"/>
-        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="13"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5262,7 +5455,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="8">
     <i>
       <x v="3"/>
     </i>
@@ -5271,6 +5464,9 @@
     </i>
     <i>
       <x v="6"/>
+    </i>
+    <i>
+      <x v="12"/>
     </i>
     <i>
       <x v="14"/>
@@ -5292,25 +5488,25 @@
     <dataField name="求和项:金额（亿元）" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="108">
+    <format dxfId="129">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="128">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="106">
+    <format dxfId="127">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="126">
       <pivotArea outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="125">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="103">
+    <format dxfId="124">
       <pivotArea outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="123">
       <pivotArea outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5324,138 +5520,138 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="数据透视表3" cacheId="26" dataOnRows="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A21:C35" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="数据透视表3" cacheId="17" dataOnRows="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A21:C36" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1">
-      <items count="135">
+      <items count="136">
+        <item m="1" x="27"/>
+        <item m="1" x="45"/>
+        <item m="1" x="112"/>
+        <item m="1" x="96"/>
+        <item m="1" x="64"/>
+        <item m="1" x="119"/>
+        <item m="1" x="81"/>
+        <item m="1" x="36"/>
+        <item m="1" x="102"/>
+        <item m="1" x="113"/>
+        <item m="1" x="35"/>
+        <item m="1" x="21"/>
+        <item m="1" x="97"/>
+        <item m="1" x="116"/>
+        <item m="1" x="130"/>
+        <item m="1" x="131"/>
+        <item m="1" x="134"/>
+        <item m="1" x="86"/>
+        <item m="1" x="60"/>
+        <item m="1" x="114"/>
+        <item m="1" x="53"/>
+        <item m="1" x="24"/>
+        <item m="1" x="132"/>
+        <item m="1" x="61"/>
+        <item m="1" x="91"/>
+        <item m="1" x="125"/>
+        <item m="1" x="101"/>
+        <item m="1" x="52"/>
+        <item m="1" x="69"/>
+        <item m="1" x="87"/>
+        <item m="1" x="133"/>
+        <item m="1" x="41"/>
+        <item m="1" x="54"/>
+        <item m="1" x="63"/>
+        <item m="1" x="78"/>
+        <item m="1" x="111"/>
+        <item m="1" x="43"/>
+        <item m="1" x="49"/>
+        <item m="1" x="79"/>
+        <item m="1" x="31"/>
+        <item x="8"/>
+        <item m="1" x="30"/>
+        <item m="1" x="73"/>
+        <item m="1" x="15"/>
+        <item m="1" x="85"/>
+        <item m="1" x="100"/>
+        <item m="1" x="38"/>
+        <item m="1" x="44"/>
+        <item m="1" x="56"/>
+        <item m="1" x="32"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item m="1" x="40"/>
+        <item m="1" x="117"/>
+        <item m="1" x="39"/>
+        <item m="1" x="58"/>
+        <item m="1" x="65"/>
+        <item m="1" x="68"/>
+        <item m="1" x="70"/>
+        <item m="1" x="89"/>
+        <item m="1" x="120"/>
         <item m="1" x="26"/>
-        <item m="1" x="44"/>
-        <item m="1" x="111"/>
+        <item m="1" x="108"/>
+        <item m="1" x="124"/>
+        <item m="1" x="90"/>
+        <item m="1" x="92"/>
+        <item m="1" x="109"/>
+        <item m="1" x="59"/>
+        <item m="1" x="122"/>
+        <item m="1" x="75"/>
+        <item m="1" x="16"/>
+        <item m="1" x="129"/>
+        <item m="1" x="74"/>
+        <item m="1" x="93"/>
+        <item m="1" x="33"/>
+        <item m="1" x="103"/>
+        <item m="1" x="110"/>
+        <item x="0"/>
+        <item m="1" x="62"/>
+        <item m="1" x="104"/>
+        <item m="1" x="88"/>
+        <item m="1" x="71"/>
+        <item m="1" x="42"/>
+        <item m="1" x="29"/>
+        <item m="1" x="22"/>
+        <item x="7"/>
+        <item m="1" x="28"/>
+        <item m="1" x="80"/>
+        <item m="1" x="121"/>
+        <item m="1" x="94"/>
+        <item x="9"/>
+        <item m="1" x="83"/>
+        <item m="1" x="84"/>
+        <item m="1" x="51"/>
+        <item m="1" x="55"/>
+        <item m="1" x="107"/>
+        <item m="1" x="47"/>
+        <item m="1" x="126"/>
+        <item m="1" x="77"/>
+        <item m="1" x="99"/>
+        <item m="1" x="123"/>
+        <item m="1" x="57"/>
+        <item m="1" x="118"/>
+        <item m="1" x="50"/>
+        <item m="1" x="76"/>
+        <item m="1" x="46"/>
+        <item m="1" x="127"/>
         <item m="1" x="95"/>
-        <item m="1" x="63"/>
-        <item m="1" x="118"/>
-        <item m="1" x="80"/>
-        <item m="1" x="35"/>
-        <item m="1" x="101"/>
-        <item m="1" x="112"/>
+        <item m="1" x="19"/>
+        <item m="1" x="37"/>
+        <item m="1" x="25"/>
+        <item m="1" x="17"/>
         <item m="1" x="34"/>
         <item m="1" x="20"/>
-        <item m="1" x="96"/>
+        <item m="1" x="128"/>
+        <item m="1" x="82"/>
+        <item m="1" x="72"/>
+        <item m="1" x="48"/>
+        <item m="1" x="66"/>
+        <item m="1" x="23"/>
+        <item m="1" x="105"/>
+        <item m="1" x="67"/>
         <item m="1" x="115"/>
-        <item m="1" x="129"/>
-        <item m="1" x="130"/>
-        <item m="1" x="133"/>
-        <item m="1" x="85"/>
-        <item m="1" x="59"/>
-        <item m="1" x="113"/>
-        <item m="1" x="52"/>
-        <item m="1" x="23"/>
-        <item m="1" x="131"/>
-        <item m="1" x="60"/>
-        <item m="1" x="90"/>
-        <item m="1" x="124"/>
-        <item m="1" x="100"/>
-        <item m="1" x="51"/>
-        <item m="1" x="68"/>
-        <item m="1" x="86"/>
-        <item m="1" x="132"/>
-        <item m="1" x="40"/>
-        <item m="1" x="53"/>
-        <item m="1" x="62"/>
-        <item m="1" x="77"/>
-        <item m="1" x="110"/>
-        <item m="1" x="42"/>
-        <item m="1" x="48"/>
-        <item m="1" x="78"/>
-        <item m="1" x="30"/>
-        <item x="8"/>
-        <item m="1" x="29"/>
-        <item m="1" x="72"/>
-        <item m="1" x="14"/>
-        <item m="1" x="84"/>
-        <item m="1" x="99"/>
-        <item m="1" x="37"/>
-        <item m="1" x="43"/>
-        <item m="1" x="55"/>
-        <item m="1" x="31"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item m="1" x="39"/>
-        <item m="1" x="116"/>
-        <item m="1" x="38"/>
-        <item m="1" x="57"/>
-        <item m="1" x="64"/>
-        <item m="1" x="67"/>
-        <item m="1" x="69"/>
-        <item m="1" x="88"/>
-        <item m="1" x="119"/>
-        <item m="1" x="25"/>
-        <item m="1" x="107"/>
-        <item m="1" x="123"/>
-        <item m="1" x="89"/>
-        <item m="1" x="91"/>
-        <item m="1" x="108"/>
-        <item m="1" x="58"/>
-        <item m="1" x="121"/>
-        <item m="1" x="74"/>
-        <item m="1" x="15"/>
-        <item m="1" x="128"/>
-        <item m="1" x="73"/>
-        <item m="1" x="92"/>
-        <item m="1" x="32"/>
-        <item m="1" x="102"/>
-        <item m="1" x="109"/>
-        <item x="0"/>
-        <item m="1" x="61"/>
-        <item m="1" x="103"/>
-        <item m="1" x="87"/>
-        <item m="1" x="70"/>
-        <item m="1" x="41"/>
-        <item m="1" x="28"/>
-        <item m="1" x="21"/>
-        <item x="7"/>
-        <item m="1" x="27"/>
-        <item m="1" x="79"/>
-        <item m="1" x="120"/>
-        <item m="1" x="93"/>
-        <item x="9"/>
-        <item m="1" x="82"/>
-        <item m="1" x="83"/>
-        <item m="1" x="50"/>
-        <item m="1" x="54"/>
+        <item m="1" x="98"/>
+        <item m="1" x="18"/>
         <item m="1" x="106"/>
-        <item m="1" x="46"/>
-        <item m="1" x="125"/>
-        <item m="1" x="76"/>
-        <item m="1" x="98"/>
-        <item m="1" x="122"/>
-        <item m="1" x="56"/>
-        <item m="1" x="117"/>
-        <item m="1" x="49"/>
-        <item m="1" x="75"/>
-        <item m="1" x="45"/>
-        <item m="1" x="126"/>
-        <item m="1" x="94"/>
-        <item m="1" x="18"/>
-        <item m="1" x="36"/>
-        <item m="1" x="24"/>
-        <item m="1" x="16"/>
-        <item m="1" x="33"/>
-        <item m="1" x="19"/>
-        <item m="1" x="127"/>
-        <item m="1" x="81"/>
-        <item m="1" x="71"/>
-        <item m="1" x="47"/>
-        <item m="1" x="65"/>
-        <item m="1" x="22"/>
-        <item m="1" x="104"/>
-        <item m="1" x="66"/>
-        <item m="1" x="114"/>
-        <item m="1" x="97"/>
-        <item m="1" x="17"/>
-        <item m="1" x="105"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -5464,32 +5660,33 @@
         <item x="6"/>
         <item x="10"/>
         <item x="11"/>
+        <item x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1" defaultSubtotal="0">
       <items count="21">
-        <item m="1" x="10"/>
+        <item m="1" x="11"/>
         <item m="1" x="18"/>
-        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item x="6"/>
+        <item x="1"/>
         <item m="1" x="17"/>
-        <item x="1"/>
-        <item m="1" x="16"/>
-        <item m="1" x="11"/>
+        <item m="1" x="12"/>
         <item x="0"/>
         <item x="4"/>
+        <item m="1" x="9"/>
+        <item m="1" x="20"/>
         <item m="1" x="8"/>
-        <item m="1" x="20"/>
-        <item m="1" x="7"/>
-        <item h="1" x="6"/>
-        <item m="1" x="13"/>
+        <item h="1" x="7"/>
+        <item m="1" x="14"/>
         <item x="3"/>
         <item x="2"/>
-        <item m="1" x="15"/>
+        <item m="1" x="16"/>
         <item x="5"/>
         <item m="1" x="19"/>
-        <item m="1" x="9"/>
-        <item m="1" x="12"/>
+        <item m="1" x="10"/>
+        <item m="1" x="13"/>
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
@@ -5503,7 +5700,11 @@
     <field x="2"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="14">
+    <i>
+      <x v="3"/>
+      <x v="134"/>
+    </i>
     <i>
       <x v="4"/>
       <x v="40"/>
@@ -5557,20 +5758,272 @@
     <dataField name="求和项:金额（亿元）" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="95">
-    <format dxfId="203">
+    <format dxfId="224">
       <pivotArea outline="0" fieldPosition="0"/>
     </format>
+    <format dxfId="223">
+      <pivotArea outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="222">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="31"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="221">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="93"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="220">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="95"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="219">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="96"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="218">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="100"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="217">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="101"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="216">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="102"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="215">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="119"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="214">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="124"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="213">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="87"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="212">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="211">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="35"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="210">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="70"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="209">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="79"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="208">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="85"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="207">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="86"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="206">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="90"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="205">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="91"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="204">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="98"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="203">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="99"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="202">
-      <pivotArea outline="0" fieldPosition="0"/>
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="121"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
     <format dxfId="201">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="31"/>
+            <x v="123"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -5579,10 +6032,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="93"/>
+            <x v="80"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -5591,10 +6044,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="95"/>
+            <x v="81"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -5603,10 +6056,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="96"/>
+            <x v="82"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -5615,10 +6068,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="100"/>
+            <x v="37"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -5627,10 +6080,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="101"/>
+            <x v="76"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -5639,10 +6092,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="102"/>
+            <x v="77"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -5651,10 +6104,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="119"/>
+            <x v="59"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -5663,10 +6116,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="124"/>
+            <x v="83"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -5675,10 +6128,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="87"/>
+            <x v="92"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -5687,10 +6140,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="9"/>
+            <x v="31"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -5699,10 +6152,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="35"/>
+            <x v="93"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -5711,10 +6164,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="70"/>
+            <x v="95"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -5723,10 +6176,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="79"/>
+            <x v="96"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -5735,10 +6188,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="85"/>
+            <x v="100"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -5747,10 +6200,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="86"/>
+            <x v="101"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -5759,10 +6212,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="90"/>
+            <x v="102"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -5771,10 +6224,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="91"/>
+            <x v="119"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -5783,10 +6236,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="98"/>
+            <x v="124"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -5795,10 +6248,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="99"/>
+            <x v="87"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -5807,7 +6260,7 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="121"/>
+            <x v="9"/>
           </reference>
           <reference field="2" count="1" selected="0">
             <x v="4"/>
@@ -5819,7 +6272,7 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="123"/>
+            <x v="35"/>
           </reference>
           <reference field="2" count="1" selected="0">
             <x v="4"/>
@@ -5831,10 +6284,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="80"/>
+            <x v="70"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="5"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -5843,10 +6296,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="81"/>
+            <x v="79"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="5"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -5855,10 +6308,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="82"/>
+            <x v="85"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="5"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -5867,10 +6320,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="37"/>
+            <x v="86"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="7"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -5879,10 +6332,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="76"/>
+            <x v="90"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="7"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -5891,10 +6344,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="77"/>
+            <x v="91"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="7"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -5903,10 +6356,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="59"/>
+            <x v="98"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="8"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -5915,10 +6368,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="83"/>
+            <x v="99"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="8"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -5927,10 +6380,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="92"/>
+            <x v="121"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="8"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -5939,10 +6392,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="31"/>
+            <x v="123"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -5951,10 +6404,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="93"/>
+            <x v="80"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -5963,10 +6416,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="95"/>
+            <x v="81"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -5975,10 +6428,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="96"/>
+            <x v="82"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -5987,10 +6440,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="100"/>
+            <x v="37"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -5999,10 +6452,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="101"/>
+            <x v="76"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -6011,10 +6464,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="102"/>
+            <x v="77"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -6023,10 +6476,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="119"/>
+            <x v="59"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -6035,10 +6488,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="124"/>
+            <x v="83"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -6047,10 +6500,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="87"/>
+            <x v="92"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -6059,10 +6512,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="9"/>
+            <x v="31"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -6071,10 +6524,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="35"/>
+            <x v="93"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -6083,10 +6536,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="70"/>
+            <x v="95"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -6095,10 +6548,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="79"/>
+            <x v="96"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -6107,10 +6560,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="85"/>
+            <x v="100"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -6119,10 +6572,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="86"/>
+            <x v="101"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -6131,10 +6584,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="90"/>
+            <x v="102"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -6143,10 +6596,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="91"/>
+            <x v="119"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -6155,10 +6608,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="98"/>
+            <x v="124"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -6167,10 +6620,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="99"/>
+            <x v="87"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -6179,7 +6632,7 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="121"/>
+            <x v="9"/>
           </reference>
           <reference field="2" count="1" selected="0">
             <x v="4"/>
@@ -6191,7 +6644,7 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="123"/>
+            <x v="35"/>
           </reference>
           <reference field="2" count="1" selected="0">
             <x v="4"/>
@@ -6203,10 +6656,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="80"/>
+            <x v="70"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="5"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -6215,10 +6668,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="81"/>
+            <x v="79"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="5"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -6227,10 +6680,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="82"/>
+            <x v="85"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="5"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -6239,10 +6692,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="37"/>
+            <x v="86"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="7"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -6251,10 +6704,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="76"/>
+            <x v="90"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="7"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -6263,10 +6716,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="77"/>
+            <x v="91"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="7"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -6275,10 +6728,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="59"/>
+            <x v="98"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="8"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -6287,10 +6740,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="83"/>
+            <x v="99"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="8"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -6299,10 +6752,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="92"/>
+            <x v="121"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="8"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -6311,10 +6764,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="31"/>
+            <x v="123"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -6323,10 +6776,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="93"/>
+            <x v="80"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -6335,10 +6788,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="95"/>
+            <x v="81"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -6347,10 +6800,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="96"/>
+            <x v="82"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -6359,10 +6812,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="100"/>
+            <x v="37"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -6371,10 +6824,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="101"/>
+            <x v="76"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -6383,10 +6836,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="102"/>
+            <x v="77"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -6395,10 +6848,10 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="119"/>
+            <x v="59"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -6407,267 +6860,15 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
-            <x v="124"/>
+            <x v="83"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="130">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="87"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="129">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="128">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="35"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="127">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="70"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="126">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="79"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="125">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="85"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="124">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="86"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="123">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="90"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="122">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="91"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="121">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="98"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="120">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="99"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="119">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="121"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="118">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="123"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="117">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="80"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="116">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="81"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="115">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="82"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="114">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="37"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="113">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="76"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="112">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="77"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="111">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="59"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="110">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="1" count="1" selected="0">
-            <x v="83"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="109">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6950,7 +7151,7 @@
   <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7410,12 +7611,24 @@
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="E15" s="54">
+        <v>44551</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>11</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="56"/>
@@ -9023,7 +9236,7 @@
       <c r="C101" s="8"/>
       <c r="D101" s="8">
         <f>SUM(D2:D100)</f>
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="E101" s="74"/>
       <c r="F101" s="55"/>
@@ -9333,7 +9546,7 @@
   <dimension ref="A3:K71"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B35" sqref="B34:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9395,11 +9608,11 @@
         <v>0.7</v>
       </c>
       <c r="C5" s="45">
-        <f>VLOOKUP(A5,$H$4:$J$23,2,FALSE)*B5</f>
+        <f>VLOOKUP(A5,$H$4:$J$24,2,FALSE)*B5</f>
         <v>0.105</v>
       </c>
       <c r="D5" s="45">
-        <f>VLOOKUP(A5,$H$4:$J$23,3,FALSE)*B5</f>
+        <f>VLOOKUP(A5,$H$4:$J$24,3,FALSE)*B5</f>
         <v>0.13999999999999999</v>
       </c>
       <c r="H5" s="49" t="s">
@@ -9420,11 +9633,11 @@
         <v>0.1</v>
       </c>
       <c r="C6" s="45">
-        <f>VLOOKUP(A6,$H$4:$J$23,2,FALSE)*B6</f>
+        <f t="shared" ref="C6:C11" si="0">VLOOKUP(A6,$H$4:$J$24,2,FALSE)*B6</f>
         <v>0</v>
       </c>
       <c r="D6" s="45">
-        <f>VLOOKUP(A6,$H$4:$J$23,3,FALSE)*B6</f>
+        <f t="shared" ref="D6:D11" si="1">VLOOKUP(A6,$H$4:$J$24,3,FALSE)*B6</f>
         <v>0</v>
       </c>
       <c r="H6" s="49" t="s">
@@ -9445,11 +9658,11 @@
         <v>1.2</v>
       </c>
       <c r="C7" s="45">
-        <f>VLOOKUP(A7,$H$4:$J$23,2,FALSE)*B7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7" s="45">
-        <f>VLOOKUP(A7,$H$4:$J$23,3,FALSE)*B7</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="H7" s="49" t="s">
@@ -9464,18 +9677,18 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="49" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B8" s="89">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="C8" s="45">
-        <f>VLOOKUP(A8,$H$4:$J$23,2,FALSE)*B8</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.2E-2</v>
       </c>
       <c r="D8" s="45">
-        <f>VLOOKUP(A8,$H$4:$J$23,3,FALSE)*B8</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.03</v>
       </c>
       <c r="H8" s="49" t="s">
         <v>16</v>
@@ -9489,18 +9702,18 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="49" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B9" s="89">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="C9" s="45">
-        <f>VLOOKUP(A9,$H$4:$J$23,2,FALSE)*B9</f>
-        <v>7.1999999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D9" s="45">
-        <f>VLOOKUP(A9,$H$4:$J$23,3,FALSE)*B9</f>
-        <v>7.6499999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H9" s="49" t="s">
         <v>18</v>
@@ -9514,18 +9727,18 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="49" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B10" s="89">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="C10" s="45">
-        <f>VLOOKUP(A10,$H$4:$J$23,2,FALSE)*B10</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D10" s="45">
-        <f>VLOOKUP(A10,$H$4:$J$23,3,FALSE)*B10</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="H10" s="49" t="s">
         <v>9</v>
@@ -9539,13 +9752,19 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="49" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="B11" s="89">
-        <v>2.5599999999999996</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+        <v>0.17</v>
+      </c>
+      <c r="C11" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H11" s="49" t="s">
         <v>19</v>
       </c>
@@ -9557,6 +9776,12 @@
       </c>
     </row>
     <row r="12" spans="1:10">
+      <c r="A12" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="89">
+        <v>2.5899999999999994</v>
+      </c>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
       <c r="H12" s="49" t="s">
@@ -9637,11 +9862,11 @@
     <row r="18" spans="1:10">
       <c r="C18" s="47">
         <f>(SUM(C5:C17))/3.2</f>
-        <v>5.5312499999999994E-2</v>
+        <v>5.9062499999999997E-2</v>
       </c>
       <c r="D18" s="47">
         <f>(SUM(D5:D17))/3.2</f>
-        <v>0.44265624999999992</v>
+        <v>0.45203124999999994</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>21</v>
@@ -9713,13 +9938,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="92" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C23" s="95">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>85</v>
@@ -9732,18 +9957,29 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="102"/>
-      <c r="B24" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="C24" s="105">
+      <c r="A24" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="95">
         <v>0.1</v>
+      </c>
+      <c r="H24" s="108" t="s">
+        <v>265</v>
+      </c>
+      <c r="I24" s="49">
+        <v>1</v>
+      </c>
+      <c r="J24" s="49">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="102"/>
       <c r="B25" s="52" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="C25" s="105">
         <v>0.1</v>
@@ -9752,16 +9988,16 @@
     <row r="26" spans="1:10">
       <c r="A26" s="102"/>
       <c r="B26" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="C26" s="96">
+        <v>32</v>
+      </c>
+      <c r="C26" s="105">
         <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="102"/>
       <c r="B27" s="52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C27" s="96">
         <v>0.1</v>
@@ -9770,7 +10006,7 @@
     <row r="28" spans="1:10">
       <c r="A28" s="102"/>
       <c r="B28" s="52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C28" s="96">
         <v>0.1</v>
@@ -9779,74 +10015,83 @@
     <row r="29" spans="1:10">
       <c r="A29" s="102"/>
       <c r="B29" s="52" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C29" s="96">
         <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="92" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="98">
+      <c r="A30" s="102"/>
+      <c r="B30" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="96">
         <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="92" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="95">
-        <v>1.2</v>
+        <v>12</v>
+      </c>
+      <c r="C31" s="98">
+        <v>0.1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="92" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B32" s="92" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C32" s="95">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="92" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B33" s="92" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C33" s="95">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="95">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="92" t="s">
+      <c r="B35" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="C34" s="95">
+      <c r="C35" s="95">
         <v>0.17</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="93" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="93" t="s">
         <v>238</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="97">
-        <v>2.5599999999999996</v>
+      <c r="B36" s="103"/>
+      <c r="C36" s="97">
+        <v>2.5899999999999994</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -17183,19 +17428,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="7"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="8"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -17214,7 +17446,23 @@
 </woProps>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="7"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="8"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="3" master=""/>
   <rangeList sheetStid="5" master=""/>
@@ -17226,29 +17474,26 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item4.xml>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/桌面/产品管理/教育成长/教育成长.xlsx
+++ b/桌面/产品管理/教育成长/教育成长.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr showInkAnnotation="0"/>
+  <workbookPr showInkAnnotation="0" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\产品管理\教育成长\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78DB679-7651-466B-9297-27F3ADAF4C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C31A83B-7E53-4D5D-A004-F14337F11BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,8 +28,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId9"/>
-    <pivotCache cacheId="17" r:id="rId10"/>
+    <pivotCache cacheId="11" r:id="rId9"/>
+    <pivotCache cacheId="14" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="266">
   <si>
     <t>序号</t>
   </si>
@@ -1702,582 +1702,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="225">
-    <dxf>
-      <numFmt numFmtId="183" formatCode="0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="102">
     <dxf>
       <numFmt numFmtId="182" formatCode="0.000"/>
     </dxf>
@@ -2563,6 +1988,64 @@
     <dxf>
       <numFmt numFmtId="183" formatCode="0.00_ "/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2656,73 +2139,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="44554.620762268518" createdVersion="7" refreshedVersion="7" minRefreshableVersion="1" recordCount="118" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B1:I4953" sheet="交易数据表"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="资管计划/基金名称" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="专户代码（投资策略）" numFmtId="0">
-      <sharedItems containsBlank="1" count="26">
-        <s v="一级债基"/>
-        <s v="二级债基"/>
-        <s v="通道专户"/>
-        <s v="信用债专户"/>
-        <s v="优先股专户"/>
-        <s v="国债现金比例"/>
-        <s v="定增专户"/>
-        <m/>
-        <s v="主动股票型基金" u="1"/>
-        <s v="增强指数型基金" u="1"/>
-        <s v="股票" u="1"/>
-        <s v="ABS专户" u="1"/>
-        <s v="权益专户" u="1"/>
-        <s v="股票基金" u="1"/>
-        <s v="量化专户" u="1"/>
-        <s v="主动股票基金" u="1"/>
-        <s v="融券打新" u="1"/>
-        <s v="优先股" u="1"/>
-        <s v="指数增强专户" u="1"/>
-        <s v="打新专户" u="1"/>
-        <s v="股票MOM" u="1"/>
-        <s v="量化策略" u="1"/>
-        <s v="量化专户（千象）" u="1"/>
-        <s v="ETF" u="1"/>
-        <s v="偏债混合" u="1"/>
-        <s v="指数增强" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="金额（亿元）" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.03" maxValue="2.59"/>
-    </cacheField>
-    <cacheField name="交易日期" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-12-15T00:00:00" maxDate="2021-12-22T00:00:00"/>
-    </cacheField>
-    <cacheField name="交易方向" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="认购渠道" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="交易价格" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="备注" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="44554.620807060186" createdVersion="7" refreshedVersion="7" minRefreshableVersion="1" recordCount="118" xr:uid="{00000000-000A-0000-FFFF-FFFF08000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="44558.465869328706" createdVersion="7" refreshedVersion="7" minRefreshableVersion="1" recordCount="118" xr:uid="{00000000-000A-0000-FFFF-FFFF08000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1087" sheet="交易数据表"/>
   </cacheSource>
@@ -2895,7 +2312,73 @@
       </sharedItems>
     </cacheField>
     <cacheField name="金额（亿元）" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.03" maxValue="2.59"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.03" maxValue="2.65"/>
+    </cacheField>
+    <cacheField name="交易日期" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-12-15T00:00:00" maxDate="2021-12-22T00:00:00"/>
+    </cacheField>
+    <cacheField name="交易方向" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="认购渠道" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="交易价格" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="备注" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="44558.46598912037" createdVersion="7" refreshedVersion="7" minRefreshableVersion="1" recordCount="118" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:I4953" sheet="交易数据表"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="资管计划/基金名称" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="专户代码（投资策略）" numFmtId="0">
+      <sharedItems containsBlank="1" count="26">
+        <s v="一级债基"/>
+        <s v="二级债基"/>
+        <s v="通道专户"/>
+        <s v="信用债专户"/>
+        <s v="优先股专户"/>
+        <s v="国债现金比例"/>
+        <s v="定增专户"/>
+        <m/>
+        <s v="主动股票型基金" u="1"/>
+        <s v="增强指数型基金" u="1"/>
+        <s v="股票" u="1"/>
+        <s v="ABS专户" u="1"/>
+        <s v="权益专户" u="1"/>
+        <s v="股票基金" u="1"/>
+        <s v="量化专户" u="1"/>
+        <s v="主动股票基金" u="1"/>
+        <s v="融券打新" u="1"/>
+        <s v="优先股" u="1"/>
+        <s v="指数增强专户" u="1"/>
+        <s v="打新专户" u="1"/>
+        <s v="股票MOM" u="1"/>
+        <s v="量化策略" u="1"/>
+        <s v="量化专户（千象）" u="1"/>
+        <s v="ETF" u="1"/>
+        <s v="偏债混合" u="1"/>
+        <s v="指数增强" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="金额（亿元）" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.03" maxValue="2.65"/>
     </cacheField>
     <cacheField name="交易日期" numFmtId="0">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-12-15T00:00:00" maxDate="2021-12-22T00:00:00"/>
@@ -2924,1191 +2407,6 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="118">
   <r>
-    <s v="平安添利A"/>
-    <x v="0"/>
-    <n v="0.1"/>
-    <d v="2021-12-15T00:00:00"/>
-    <s v="申购"/>
-    <s v="基煜"/>
-    <m/>
-    <s v="700005.OF"/>
-  </r>
-  <r>
-    <s v="招商安华A"/>
-    <x v="1"/>
-    <n v="0.1"/>
-    <d v="2021-12-15T00:00:00"/>
-    <s v="申购"/>
-    <s v="基煜"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="广发集丰A"/>
-    <x v="1"/>
-    <n v="0.1"/>
-    <d v="2021-12-15T00:00:00"/>
-    <s v="申购"/>
-    <s v="基煜"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="鹏华双债增利"/>
-    <x v="1"/>
-    <n v="0.1"/>
-    <d v="2021-12-15T00:00:00"/>
-    <s v="申购"/>
-    <s v="基煜"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="光大期货-光大理财阳光橙精选1号"/>
-    <x v="2"/>
-    <n v="0.06"/>
-    <d v="2021-12-16T00:00:00"/>
-    <s v="申购"/>
-    <s v="基煜"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="中信期货衍生对冲1号"/>
-    <x v="3"/>
-    <n v="0.3"/>
-    <d v="2021-12-16T00:00:00"/>
-    <s v="申购"/>
-    <s v="基煜"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="景顺长城景怡双利A"/>
-    <x v="1"/>
-    <n v="0.1"/>
-    <d v="2021-12-17T00:00:00"/>
-    <s v="申购"/>
-    <s v="基煜"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="汇添富双利A"/>
-    <x v="1"/>
-    <n v="0.1"/>
-    <d v="2021-12-17T00:00:00"/>
-    <s v="申购"/>
-    <s v="基煜"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="光大期货-光大理财阳光橙精选1号"/>
-    <x v="2"/>
-    <n v="0.03"/>
-    <d v="2021-12-20T00:00:00"/>
-    <s v="申购"/>
-    <s v="基煜"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="易方达稳健收益B"/>
-    <x v="1"/>
-    <n v="0.1"/>
-    <d v="2021-12-21T00:00:00"/>
-    <s v="申购"/>
-    <s v="基煜"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="华夏希望债券A"/>
-    <x v="1"/>
-    <n v="0.1"/>
-    <d v="2021-12-21T00:00:00"/>
-    <s v="申购"/>
-    <s v="基煜"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="光证资管鑫优4号"/>
-    <x v="4"/>
-    <n v="1.2"/>
-    <d v="2021-12-21T00:00:00"/>
-    <s v="申购"/>
-    <s v="基煜"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="20国债11"/>
-    <x v="5"/>
-    <n v="0.17"/>
-    <d v="2021-12-15T00:00:00"/>
-    <s v="买入"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="华夏基金阳光增盈1号"/>
-    <x v="6"/>
-    <n v="0.03"/>
-    <d v="2021-12-21T00:00:00"/>
-    <s v="申购"/>
-    <s v="基煜"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="总计"/>
-    <x v="7"/>
-    <n v="2.59"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="118">
-  <r>
     <n v="1"/>
     <x v="0"/>
     <x v="0"/>
@@ -4264,12 +2562,12 @@
   </r>
   <r>
     <n v="15"/>
-    <x v="13"/>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="0.06"/>
+    <d v="2021-12-20T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
     <m/>
     <m/>
   </r>
@@ -5201,7 +3499,7 @@
     <m/>
     <x v="14"/>
     <x v="7"/>
-    <n v="2.59"/>
+    <n v="2.65"/>
     <m/>
     <m/>
     <m/>
@@ -5398,6 +3696,1191 @@
   <r>
     <m/>
     <x v="13"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="118">
+  <r>
+    <s v="平安添利A"/>
+    <x v="0"/>
+    <n v="0.1"/>
+    <d v="2021-12-15T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
+    <m/>
+    <s v="700005.OF"/>
+  </r>
+  <r>
+    <s v="招商安华A"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <d v="2021-12-15T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="广发集丰A"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <d v="2021-12-15T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="鹏华双债增利"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <d v="2021-12-15T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="光大期货-光大理财阳光橙精选1号"/>
+    <x v="2"/>
+    <n v="0.06"/>
+    <d v="2021-12-16T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="中信期货衍生对冲1号"/>
+    <x v="3"/>
+    <n v="0.3"/>
+    <d v="2021-12-16T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="景顺长城景怡双利A"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <d v="2021-12-17T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="汇添富双利A"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <d v="2021-12-17T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="光大期货-光大理财阳光橙精选1号"/>
+    <x v="2"/>
+    <n v="0.03"/>
+    <d v="2021-12-20T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="易方达稳健收益B"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <d v="2021-12-21T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="华夏希望债券A"/>
+    <x v="1"/>
+    <n v="0.1"/>
+    <d v="2021-12-21T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="光证资管鑫优4号"/>
+    <x v="4"/>
+    <n v="1.2"/>
+    <d v="2021-12-21T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="20国债11"/>
+    <x v="5"/>
+    <n v="0.17"/>
+    <d v="2021-12-15T00:00:00"/>
+    <s v="买入"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="华夏基金阳光增盈1号"/>
+    <x v="6"/>
+    <n v="0.03"/>
+    <d v="2021-12-21T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="光大期货-光大理财阳光橙精选1号"/>
+    <x v="2"/>
+    <n v="0.06"/>
+    <d v="2021-12-20T00:00:00"/>
+    <s v="申购"/>
+    <s v="基煜"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="总计"/>
+    <x v="7"/>
+    <n v="2.65"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
     <x v="7"/>
     <m/>
     <m/>
@@ -5410,117 +4893,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表2" cacheId="13" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:B12" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1">
-      <items count="27">
-        <item m="1" x="11"/>
-        <item m="1" x="23"/>
-        <item m="1" x="19"/>
-        <item x="1"/>
-        <item m="1" x="21"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item m="1" x="9"/>
-        <item m="1" x="25"/>
-        <item m="1" x="8"/>
-        <item h="1" x="7"/>
-        <item m="1" x="12"/>
-        <item x="6"/>
-        <item m="1" x="18"/>
-        <item x="3"/>
-        <item m="1" x="14"/>
-        <item m="1" x="22"/>
-        <item m="1" x="17"/>
-        <item x="2"/>
-        <item m="1" x="16"/>
-        <item m="1" x="15"/>
-        <item m="1" x="20"/>
-        <item x="5"/>
-        <item m="1" x="24"/>
-        <item m="1" x="10"/>
-        <item m="1" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="求和项:金额（亿元）" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="129">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="128">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="127">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="126">
-      <pivotArea outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="125">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="124">
-      <pivotArea outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="123">
-      <pivotArea outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="None" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="数据透视表3" cacheId="17" dataOnRows="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="数据透视表3" cacheId="11" dataOnRows="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A21:C36" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
@@ -5758,13 +5131,13 @@
     <dataField name="求和项:金额（亿元）" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="95">
-    <format dxfId="224">
+    <format dxfId="94">
       <pivotArea outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="223">
+    <format dxfId="93">
       <pivotArea outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="222">
+    <format dxfId="92">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5776,7 +5149,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="221">
+    <format dxfId="91">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5788,7 +5161,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="220">
+    <format dxfId="90">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5800,7 +5173,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="219">
+    <format dxfId="89">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5812,7 +5185,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="218">
+    <format dxfId="88">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5824,7 +5197,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="217">
+    <format dxfId="87">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5836,7 +5209,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="216">
+    <format dxfId="86">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5848,7 +5221,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="215">
+    <format dxfId="85">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5860,7 +5233,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="214">
+    <format dxfId="84">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5872,7 +5245,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="213">
+    <format dxfId="83">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5884,7 +5257,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="212">
+    <format dxfId="82">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5896,7 +5269,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="211">
+    <format dxfId="81">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5908,7 +5281,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="210">
+    <format dxfId="80">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5920,7 +5293,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="209">
+    <format dxfId="79">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5932,7 +5305,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="208">
+    <format dxfId="78">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5944,7 +5317,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="207">
+    <format dxfId="77">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5956,7 +5329,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="206">
+    <format dxfId="76">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5968,7 +5341,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="205">
+    <format dxfId="75">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5980,7 +5353,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="204">
+    <format dxfId="74">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -5992,7 +5365,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="203">
+    <format dxfId="73">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6004,7 +5377,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="202">
+    <format dxfId="72">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6016,7 +5389,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="201">
+    <format dxfId="71">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6028,7 +5401,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="200">
+    <format dxfId="70">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6040,7 +5413,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="199">
+    <format dxfId="69">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6052,7 +5425,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="198">
+    <format dxfId="68">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6064,7 +5437,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="197">
+    <format dxfId="67">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6076,7 +5449,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="196">
+    <format dxfId="66">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6088,7 +5461,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="195">
+    <format dxfId="65">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6100,7 +5473,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="194">
+    <format dxfId="64">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6112,7 +5485,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="193">
+    <format dxfId="63">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6124,7 +5497,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="192">
+    <format dxfId="62">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6136,7 +5509,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="191">
+    <format dxfId="61">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6148,7 +5521,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="190">
+    <format dxfId="60">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6160,7 +5533,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="189">
+    <format dxfId="59">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6172,7 +5545,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="188">
+    <format dxfId="58">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6184,7 +5557,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="187">
+    <format dxfId="57">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6196,7 +5569,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="186">
+    <format dxfId="56">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6208,7 +5581,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="185">
+    <format dxfId="55">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6220,7 +5593,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="184">
+    <format dxfId="54">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6232,7 +5605,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="183">
+    <format dxfId="53">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6244,7 +5617,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="182">
+    <format dxfId="52">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6256,7 +5629,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="181">
+    <format dxfId="51">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6268,7 +5641,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="180">
+    <format dxfId="50">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6280,7 +5653,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="179">
+    <format dxfId="49">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6292,7 +5665,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="178">
+    <format dxfId="48">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6304,7 +5677,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="177">
+    <format dxfId="47">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6316,7 +5689,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="176">
+    <format dxfId="46">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6328,7 +5701,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="175">
+    <format dxfId="45">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6340,7 +5713,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="174">
+    <format dxfId="44">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6352,7 +5725,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="173">
+    <format dxfId="43">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6364,7 +5737,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="172">
+    <format dxfId="42">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6376,7 +5749,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="171">
+    <format dxfId="41">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6388,7 +5761,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="170">
+    <format dxfId="40">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6400,7 +5773,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="169">
+    <format dxfId="39">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6412,7 +5785,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="168">
+    <format dxfId="38">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6424,7 +5797,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="167">
+    <format dxfId="37">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6436,7 +5809,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="166">
+    <format dxfId="36">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6448,7 +5821,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="165">
+    <format dxfId="35">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6460,7 +5833,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="164">
+    <format dxfId="34">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6472,7 +5845,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="163">
+    <format dxfId="33">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6484,7 +5857,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="162">
+    <format dxfId="32">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6496,7 +5869,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="161">
+    <format dxfId="31">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6508,7 +5881,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="160">
+    <format dxfId="30">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6520,7 +5893,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="159">
+    <format dxfId="29">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6532,7 +5905,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="158">
+    <format dxfId="28">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6544,7 +5917,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="157">
+    <format dxfId="27">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6556,7 +5929,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="156">
+    <format dxfId="26">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6568,7 +5941,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="155">
+    <format dxfId="25">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6580,7 +5953,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="154">
+    <format dxfId="24">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6592,7 +5965,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="153">
+    <format dxfId="23">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6604,7 +5977,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="152">
+    <format dxfId="22">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6616,7 +5989,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="151">
+    <format dxfId="21">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6628,7 +6001,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="150">
+    <format dxfId="20">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6640,7 +6013,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="149">
+    <format dxfId="19">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6652,7 +6025,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="148">
+    <format dxfId="18">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6664,7 +6037,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="147">
+    <format dxfId="17">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6676,7 +6049,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="146">
+    <format dxfId="16">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6688,7 +6061,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="145">
+    <format dxfId="15">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6700,7 +6073,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="144">
+    <format dxfId="14">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6712,7 +6085,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="143">
+    <format dxfId="13">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6724,7 +6097,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="142">
+    <format dxfId="12">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6736,7 +6109,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="141">
+    <format dxfId="11">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6748,7 +6121,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="140">
+    <format dxfId="10">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6760,7 +6133,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="139">
+    <format dxfId="9">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6772,7 +6145,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="138">
+    <format dxfId="8">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6784,7 +6157,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="137">
+    <format dxfId="7">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6796,7 +6169,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="136">
+    <format dxfId="6">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6808,7 +6181,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="135">
+    <format dxfId="5">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6820,7 +6193,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="134">
+    <format dxfId="4">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6832,7 +6205,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="133">
+    <format dxfId="3">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6844,7 +6217,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="132">
+    <format dxfId="2">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6856,7 +6229,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="131">
+    <format dxfId="1">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6868,7 +6241,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="130">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -6879,6 +6252,116 @@
           </reference>
         </references>
       </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="None" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表2" cacheId="14" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" showMultipleLabel="0" showMemberPropertyTips="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:B12" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1">
+      <items count="27">
+        <item m="1" x="11"/>
+        <item m="1" x="23"/>
+        <item m="1" x="19"/>
+        <item x="1"/>
+        <item m="1" x="21"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item m="1" x="9"/>
+        <item m="1" x="25"/>
+        <item m="1" x="8"/>
+        <item h="1" x="7"/>
+        <item m="1" x="12"/>
+        <item x="6"/>
+        <item m="1" x="18"/>
+        <item x="3"/>
+        <item m="1" x="14"/>
+        <item m="1" x="22"/>
+        <item m="1" x="17"/>
+        <item x="2"/>
+        <item m="1" x="16"/>
+        <item m="1" x="15"/>
+        <item m="1" x="20"/>
+        <item x="5"/>
+        <item m="1" x="24"/>
+        <item m="1" x="10"/>
+        <item m="1" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" topAutoShow="0" includeNewItemsInFilter="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和项:金额（亿元）" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="101">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="100">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="99">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="98">
+      <pivotArea outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="97">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="96">
+      <pivotArea outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="95">
+      <pivotArea outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="None" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -7151,7 +6634,7 @@
   <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7246,7 +6729,7 @@
       <c r="B3" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="104" t="s">
         <v>234</v>
       </c>
       <c r="D3" s="64">
@@ -7275,7 +6758,7 @@
       <c r="B4" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="104" t="s">
         <v>234</v>
       </c>
       <c r="D4" s="64">
@@ -7306,7 +6789,7 @@
       <c r="B5" s="88" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="104" t="s">
         <v>234</v>
       </c>
       <c r="D5" s="64">
@@ -7337,7 +6820,7 @@
       <c r="B6" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="99" t="s">
         <v>244</v>
       </c>
       <c r="D6" s="8">
@@ -7368,7 +6851,7 @@
       <c r="B7" s="99" t="s">
         <v>246</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="99" t="s">
         <v>247</v>
       </c>
       <c r="D7" s="8">
@@ -7399,7 +6882,7 @@
       <c r="B8" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="100" t="s">
         <v>234</v>
       </c>
       <c r="D8" s="64">
@@ -7430,7 +6913,7 @@
       <c r="B9" s="101" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="104" t="s">
         <v>234</v>
       </c>
       <c r="D9" s="64">
@@ -7461,7 +6944,7 @@
       <c r="B10" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="104" t="s">
         <v>244</v>
       </c>
       <c r="D10" s="64">
@@ -7642,12 +7125,24 @@
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="8"/>
+      <c r="B16" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="100" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="64">
+        <v>0.06</v>
+      </c>
+      <c r="E16" s="54">
+        <v>44550</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>11</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="56"/>
@@ -7738,7 +7233,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="8"/>
       <c r="E21" s="54"/>
       <c r="F21" s="55"/>
@@ -7757,7 +7252,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="8"/>
       <c r="E22" s="54"/>
       <c r="F22" s="55"/>
@@ -7776,7 +7271,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="8"/>
       <c r="E23" s="54"/>
       <c r="F23" s="55"/>
@@ -7795,7 +7290,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="8"/>
       <c r="E24" s="54"/>
       <c r="F24" s="55"/>
@@ -7814,7 +7309,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="52"/>
+      <c r="C25" s="104"/>
       <c r="D25" s="8"/>
       <c r="E25" s="54"/>
       <c r="F25" s="55"/>
@@ -7833,7 +7328,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="52"/>
+      <c r="C26" s="99"/>
       <c r="D26" s="8"/>
       <c r="E26" s="54"/>
       <c r="F26" s="55"/>
@@ -7852,7 +7347,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="52"/>
+      <c r="C27" s="99"/>
       <c r="D27" s="8"/>
       <c r="E27" s="54"/>
       <c r="F27" s="55"/>
@@ -7871,7 +7366,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="C28" s="100"/>
       <c r="D28" s="8"/>
       <c r="E28" s="54"/>
       <c r="F28" s="55"/>
@@ -7890,7 +7385,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="8"/>
       <c r="E29" s="54"/>
       <c r="F29" s="55"/>
@@ -7909,7 +7404,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="53"/>
+      <c r="C30" s="99"/>
       <c r="D30" s="8"/>
       <c r="E30" s="54"/>
       <c r="F30" s="55"/>
@@ -7928,7 +7423,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="53"/>
+      <c r="C31" s="99"/>
       <c r="D31" s="8"/>
       <c r="E31" s="54"/>
       <c r="F31" s="55"/>
@@ -7946,7 +7441,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="C32" s="100"/>
       <c r="D32" s="8"/>
       <c r="E32" s="54"/>
       <c r="F32" s="55"/>
@@ -7964,7 +7459,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" s="52"/>
+      <c r="C33" s="104"/>
       <c r="D33" s="8"/>
       <c r="E33" s="54"/>
       <c r="F33" s="55"/>
@@ -7983,7 +7478,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="52"/>
+      <c r="C34" s="99"/>
       <c r="D34" s="8"/>
       <c r="E34" s="54"/>
       <c r="F34" s="55"/>
@@ -8002,7 +7497,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="C35" s="99"/>
       <c r="D35" s="8"/>
       <c r="E35" s="54"/>
       <c r="F35" s="55"/>
@@ -9236,7 +8731,7 @@
       <c r="C101" s="8"/>
       <c r="D101" s="8">
         <f>SUM(D2:D100)</f>
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="E101" s="74"/>
       <c r="F101" s="55"/>
@@ -9545,8 +9040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:K71"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B34:C35"/>
+    <sheetView zoomScale="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9730,15 +9225,15 @@
         <v>21</v>
       </c>
       <c r="B10" s="89">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="C10" s="45">
         <f t="shared" si="0"/>
-        <v>7.1999999999999995E-2</v>
+        <v>0.12</v>
       </c>
       <c r="D10" s="45">
         <f t="shared" si="1"/>
-        <v>7.6499999999999999E-2</v>
+        <v>0.1275</v>
       </c>
       <c r="H10" s="49" t="s">
         <v>9</v>
@@ -9780,7 +9275,7 @@
         <v>238</v>
       </c>
       <c r="B12" s="89">
-        <v>2.5899999999999994</v>
+        <v>2.6499999999999995</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
@@ -9862,11 +9357,11 @@
     <row r="18" spans="1:10">
       <c r="C18" s="47">
         <f>(SUM(C5:C17))/3.2</f>
-        <v>5.9062499999999997E-2</v>
+        <v>7.4062499999999989E-2</v>
       </c>
       <c r="D18" s="47">
         <f>(SUM(D5:D17))/3.2</f>
-        <v>0.45203124999999994</v>
+        <v>0.46796874999999993</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>21</v>
@@ -10071,7 +9566,7 @@
         <v>242</v>
       </c>
       <c r="C34" s="95">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -10091,7 +9586,7 @@
       </c>
       <c r="B36" s="103"/>
       <c r="C36" s="97">
-        <v>2.5899999999999994</v>
+        <v>2.6499999999999995</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -17427,7 +16922,23 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="7"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="8"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -17446,22 +16957,6 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="7"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="8"/>
-</pixelators>
-</file>
-
-<file path=customXml/item3.xml>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="3" master=""/>
@@ -17475,7 +16970,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -17487,7 +16982,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
